--- a/Day-1 Test Case Design/Charankumar_R_test_cast_design_for_redif_account_creation.xlsx
+++ b/Day-1 Test Case Design/Charankumar_R_test_cast_design_for_redif_account_creation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chara\Documents\HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CBB0C7-9EA6-4882-BD90-917727F53764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DDEDC7-98CB-44A8-9A4A-FB6D5BF09B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="268">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -511,6 +511,327 @@
   </si>
   <si>
     <t>Validate Captcha functionality for blank and incorrect input</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>Verify 'Check Availability' functionality and UI</t>
+  </si>
+  <si>
+    <t>The message "ID already taken" should be displayed</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>DEF_004</t>
+  </si>
+  <si>
+    <t>Validate Mobile Number length (Boundary - Min)</t>
+  </si>
+  <si>
+    <t>The error message "Mobile number must be 10 digits" should be displayed</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>DEF_005</t>
+  </si>
+  <si>
+    <t>Validate Password field Copy-Paste restriction</t>
+  </si>
+  <si>
+    <t>DEF_003</t>
+  </si>
+  <si>
+    <t>Verify Age Restriction (Underage User)</t>
+  </si>
+  <si>
+    <t>DEF_001</t>
+  </si>
+  <si>
+    <t>Verify Browser Tab Navigation order</t>
+  </si>
+  <si>
+    <t>1. Press "Tab" key repeatedly on keyboard</t>
+  </si>
+  <si>
+    <t>Focus should move logically (Name &gt; ID &gt; Password...)</t>
+  </si>
+  <si>
+    <t>Verify Session Timeout on Registration Page</t>
+  </si>
+  <si>
+    <t>Time passes</t>
+  </si>
+  <si>
+    <t>Session should expire or page should refresh</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>2. Enter an existing ID in "Rediffmail ID" field</t>
+  </si>
+  <si>
+    <t>3. Click on "Check availability" button</t>
+  </si>
+  <si>
+    <t>The name 'Charan' is clearly visible in the text box</t>
+  </si>
+  <si>
+    <t>The ID 'CharanRCK10' is displayed in the field</t>
+  </si>
+  <si>
+    <t>The button overlaps with the text field and obscures the text</t>
+  </si>
+  <si>
+    <t>The password characters are accepted and masked</t>
+  </si>
+  <si>
+    <t>The re-typed password matches and is accepted</t>
+  </si>
+  <si>
+    <t>18.3.05</t>
+  </si>
+  <si>
+    <t>The dropdowns show '18', 'MAR', and '2005' correctly</t>
+  </si>
+  <si>
+    <t>The 'Male' radio button is marked as selected</t>
+  </si>
+  <si>
+    <t>7. Select Country</t>
+  </si>
+  <si>
+    <t>India' is selected in the Country dropdown</t>
+  </si>
+  <si>
+    <t>Chennai' is selected in the City dropdown</t>
+  </si>
+  <si>
+    <t>10. Enter 9-digit mobile number</t>
+  </si>
+  <si>
+    <t>11. Click on "Sign Up" button</t>
+  </si>
+  <si>
+    <t>9. Enter recovery mail ID</t>
+  </si>
+  <si>
+    <t>The email 'Charan_342@gmail.com' is visible in the field</t>
+  </si>
+  <si>
+    <t>The system validated the length and displayed the correct error message</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Validate Mobile Number max length</t>
+  </si>
+  <si>
+    <t>10. Enter 11-digit mobile number</t>
+  </si>
+  <si>
+    <t>Field should restrict input to 10 digits only</t>
+  </si>
+  <si>
+    <t>The field accepted all 11 digits without restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>4. Copy password &amp; Right-click "Retype Password"</t>
+  </si>
+  <si>
+    <t>The "Paste" option should be disabled or blocked</t>
+  </si>
+  <si>
+    <t>The 'Paste' option was enabled and the password was pasted successfully</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>5. Select Date of Birth (Under 13)</t>
+  </si>
+  <si>
+    <t>18.3.2015</t>
+  </si>
+  <si>
+    <t>The selected data should be displayed</t>
+  </si>
+  <si>
+    <t>The dropdowns show '18', 'MAR', and '2015' correctly</t>
+  </si>
+  <si>
+    <t>6. Click on "Sign Up" button</t>
+  </si>
+  <si>
+    <t>Error "Must be at least 13 years" should be displayed</t>
+  </si>
+  <si>
+    <t>The error message "Must be at least 13 years" was displayed</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>Verify 'Terms and Conditions' Link</t>
+  </si>
+  <si>
+    <t>1. Click on "Terms and Conditions" link</t>
+  </si>
+  <si>
+    <t>New window/tab should open displaying T&amp;C page</t>
+  </si>
+  <si>
+    <t>The link opened a new tab displaying a 404 Not Found error</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>The cursor focus moved sequentially through the fields as intended</t>
+  </si>
+  <si>
+    <t>The mobile no."987654321" is visible in the field</t>
+  </si>
+  <si>
+    <t>11. Wait for 20 minutes</t>
+  </si>
+  <si>
+    <t>The session remained idle for 20 minutes</t>
+  </si>
+  <si>
+    <t>12. Click "Sign Up"</t>
+  </si>
+  <si>
+    <t>The page refreshed automatically and cleared the form data</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>DEF_002</t>
+  </si>
+  <si>
+    <t>The field accepts and displays the mobile number</t>
+  </si>
+  <si>
+    <t>The text 'AFNS' is visible in the Captcha box</t>
+  </si>
+  <si>
+    <t>The 'Account Successfully Created' welcome page was displayed</t>
+  </si>
+  <si>
+    <t>The Captcha field was left empty</t>
+  </si>
+  <si>
+    <t>The system displayed the error "Please enter valid Captcha"</t>
+  </si>
+  <si>
+    <t>The error "Your full name cannot be blank" was displayed</t>
+  </si>
+  <si>
+    <t>The system validated the input and showed "Invalid full name format"</t>
+  </si>
+  <si>
+    <t>The error "Invalid full name format" was displayed immediately</t>
+  </si>
+  <si>
+    <t>The error "The ID contains invalid character(s)" was displayed</t>
+  </si>
+  <si>
+    <t>The error "ID cannot be blank" appeared upon losing focus</t>
+  </si>
+  <si>
+    <t>The error "Your password should be 8-100 characters long" was displayedThe error "Your password should be 8-100 characters long" was displayed</t>
+  </si>
+  <si>
+    <t>The error "Your password should not contain username" was displayed</t>
+  </si>
+  <si>
+    <t>The error "The password field is empty" was displayed</t>
+  </si>
+  <si>
+    <t>The error "Passwords typed do not match" was displayed</t>
+  </si>
+  <si>
+    <t>The dropdown list correctly showed Jan through Dec</t>
+  </si>
+  <si>
+    <t>The dropdown list correctly showed the year range</t>
+  </si>
+  <si>
+    <t>Both 'Male' and 'Female' radio buttons are visible</t>
+  </si>
+  <si>
+    <t>The dropdown was scrollable and listed all expected countries</t>
+  </si>
+  <si>
+    <t>The City dropdown populated with Indian cities correctly</t>
+  </si>
+  <si>
+    <t>The error "The alternate email ID cannot be blank" was displayed</t>
+  </si>
+  <si>
+    <t>The error "Please enter a valid mobile number" was displayed</t>
+  </si>
+  <si>
+    <t>The field prevented the typing of alphabetic characters</t>
+  </si>
+  <si>
+    <t>The error "Captcha code doesn't match the image code" was displayed</t>
+  </si>
+  <si>
+    <t>The error "Captcha code field cannot be blank" was displayed</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Check Availability button overlaps with text field (UI Error)</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Cosmetic</t>
+  </si>
+  <si>
+    <t>Mobile Number accepts 11 digits (Boundary Failure)</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Retype Password field allows Copy-Paste functionality</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Age Restriction Error (Underage User)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Terms and Conditions link leads to 404 Page Not Found</t>
   </si>
 </sst>
 </file>
@@ -523,7 +844,7 @@
     <numFmt numFmtId="166" formatCode="[$-14009]d\.m\.yy;@"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +896,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -614,7 +967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -672,30 +1025,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -768,7 +1097,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,14 +1128,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -836,94 +1159,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,12 +1190,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,6 +1218,108 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1582,36 +1933,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +2000,7 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -1757,3571 +2108,4740 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13" style="30" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="257" max="257" width="14.42578125" customWidth="1"/>
-    <col min="258" max="258" width="27.7109375" customWidth="1"/>
-    <col min="259" max="259" width="18.42578125" customWidth="1"/>
-    <col min="260" max="260" width="34.5703125" customWidth="1"/>
-    <col min="261" max="261" width="25.7109375" customWidth="1"/>
-    <col min="262" max="262" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="29.7109375" customWidth="1"/>
-    <col min="264" max="264" width="28.28515625" customWidth="1"/>
-    <col min="265" max="265" width="27.7109375" customWidth="1"/>
-    <col min="266" max="266" width="27" customWidth="1"/>
-    <col min="267" max="267" width="34.28515625" customWidth="1"/>
-    <col min="268" max="268" width="13.42578125" customWidth="1"/>
-    <col min="269" max="269" width="11.42578125" customWidth="1"/>
-    <col min="270" max="270" width="13" customWidth="1"/>
-    <col min="271" max="271" width="14" customWidth="1"/>
-    <col min="513" max="513" width="14.42578125" customWidth="1"/>
-    <col min="514" max="514" width="27.7109375" customWidth="1"/>
-    <col min="515" max="515" width="18.42578125" customWidth="1"/>
-    <col min="516" max="516" width="34.5703125" customWidth="1"/>
-    <col min="517" max="517" width="25.7109375" customWidth="1"/>
-    <col min="518" max="518" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="29.7109375" customWidth="1"/>
-    <col min="520" max="520" width="28.28515625" customWidth="1"/>
-    <col min="521" max="521" width="27.7109375" customWidth="1"/>
-    <col min="522" max="522" width="27" customWidth="1"/>
-    <col min="523" max="523" width="34.28515625" customWidth="1"/>
-    <col min="524" max="524" width="13.42578125" customWidth="1"/>
-    <col min="525" max="525" width="11.42578125" customWidth="1"/>
-    <col min="526" max="526" width="13" customWidth="1"/>
-    <col min="527" max="527" width="14" customWidth="1"/>
-    <col min="769" max="769" width="14.42578125" customWidth="1"/>
-    <col min="770" max="770" width="27.7109375" customWidth="1"/>
-    <col min="771" max="771" width="18.42578125" customWidth="1"/>
-    <col min="772" max="772" width="34.5703125" customWidth="1"/>
-    <col min="773" max="773" width="25.7109375" customWidth="1"/>
-    <col min="774" max="774" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="29.7109375" customWidth="1"/>
-    <col min="776" max="776" width="28.28515625" customWidth="1"/>
-    <col min="777" max="777" width="27.7109375" customWidth="1"/>
-    <col min="778" max="778" width="27" customWidth="1"/>
-    <col min="779" max="779" width="34.28515625" customWidth="1"/>
-    <col min="780" max="780" width="13.42578125" customWidth="1"/>
-    <col min="781" max="781" width="11.42578125" customWidth="1"/>
-    <col min="782" max="782" width="13" customWidth="1"/>
-    <col min="783" max="783" width="14" customWidth="1"/>
-    <col min="1025" max="1025" width="14.42578125" customWidth="1"/>
-    <col min="1026" max="1026" width="27.7109375" customWidth="1"/>
-    <col min="1027" max="1027" width="18.42578125" customWidth="1"/>
-    <col min="1028" max="1028" width="34.5703125" customWidth="1"/>
-    <col min="1029" max="1029" width="25.7109375" customWidth="1"/>
-    <col min="1030" max="1030" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
-    <col min="1032" max="1032" width="28.28515625" customWidth="1"/>
-    <col min="1033" max="1033" width="27.7109375" customWidth="1"/>
-    <col min="1034" max="1034" width="27" customWidth="1"/>
-    <col min="1035" max="1035" width="34.28515625" customWidth="1"/>
-    <col min="1036" max="1036" width="13.42578125" customWidth="1"/>
-    <col min="1037" max="1037" width="11.42578125" customWidth="1"/>
-    <col min="1038" max="1038" width="13" customWidth="1"/>
-    <col min="1039" max="1039" width="14" customWidth="1"/>
-    <col min="1281" max="1281" width="14.42578125" customWidth="1"/>
-    <col min="1282" max="1282" width="27.7109375" customWidth="1"/>
-    <col min="1283" max="1283" width="18.42578125" customWidth="1"/>
-    <col min="1284" max="1284" width="34.5703125" customWidth="1"/>
-    <col min="1285" max="1285" width="25.7109375" customWidth="1"/>
-    <col min="1286" max="1286" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
-    <col min="1288" max="1288" width="28.28515625" customWidth="1"/>
-    <col min="1289" max="1289" width="27.7109375" customWidth="1"/>
-    <col min="1290" max="1290" width="27" customWidth="1"/>
-    <col min="1291" max="1291" width="34.28515625" customWidth="1"/>
-    <col min="1292" max="1292" width="13.42578125" customWidth="1"/>
-    <col min="1293" max="1293" width="11.42578125" customWidth="1"/>
-    <col min="1294" max="1294" width="13" customWidth="1"/>
-    <col min="1295" max="1295" width="14" customWidth="1"/>
-    <col min="1537" max="1537" width="14.42578125" customWidth="1"/>
-    <col min="1538" max="1538" width="27.7109375" customWidth="1"/>
-    <col min="1539" max="1539" width="18.42578125" customWidth="1"/>
-    <col min="1540" max="1540" width="34.5703125" customWidth="1"/>
-    <col min="1541" max="1541" width="25.7109375" customWidth="1"/>
-    <col min="1542" max="1542" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
-    <col min="1544" max="1544" width="28.28515625" customWidth="1"/>
-    <col min="1545" max="1545" width="27.7109375" customWidth="1"/>
-    <col min="1546" max="1546" width="27" customWidth="1"/>
-    <col min="1547" max="1547" width="34.28515625" customWidth="1"/>
-    <col min="1548" max="1548" width="13.42578125" customWidth="1"/>
-    <col min="1549" max="1549" width="11.42578125" customWidth="1"/>
-    <col min="1550" max="1550" width="13" customWidth="1"/>
-    <col min="1551" max="1551" width="14" customWidth="1"/>
-    <col min="1793" max="1793" width="14.42578125" customWidth="1"/>
-    <col min="1794" max="1794" width="27.7109375" customWidth="1"/>
-    <col min="1795" max="1795" width="18.42578125" customWidth="1"/>
-    <col min="1796" max="1796" width="34.5703125" customWidth="1"/>
-    <col min="1797" max="1797" width="25.7109375" customWidth="1"/>
-    <col min="1798" max="1798" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
-    <col min="1800" max="1800" width="28.28515625" customWidth="1"/>
-    <col min="1801" max="1801" width="27.7109375" customWidth="1"/>
-    <col min="1802" max="1802" width="27" customWidth="1"/>
-    <col min="1803" max="1803" width="34.28515625" customWidth="1"/>
-    <col min="1804" max="1804" width="13.42578125" customWidth="1"/>
-    <col min="1805" max="1805" width="11.42578125" customWidth="1"/>
-    <col min="1806" max="1806" width="13" customWidth="1"/>
-    <col min="1807" max="1807" width="14" customWidth="1"/>
-    <col min="2049" max="2049" width="14.42578125" customWidth="1"/>
-    <col min="2050" max="2050" width="27.7109375" customWidth="1"/>
-    <col min="2051" max="2051" width="18.42578125" customWidth="1"/>
-    <col min="2052" max="2052" width="34.5703125" customWidth="1"/>
-    <col min="2053" max="2053" width="25.7109375" customWidth="1"/>
-    <col min="2054" max="2054" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
-    <col min="2056" max="2056" width="28.28515625" customWidth="1"/>
-    <col min="2057" max="2057" width="27.7109375" customWidth="1"/>
-    <col min="2058" max="2058" width="27" customWidth="1"/>
-    <col min="2059" max="2059" width="34.28515625" customWidth="1"/>
-    <col min="2060" max="2060" width="13.42578125" customWidth="1"/>
-    <col min="2061" max="2061" width="11.42578125" customWidth="1"/>
-    <col min="2062" max="2062" width="13" customWidth="1"/>
-    <col min="2063" max="2063" width="14" customWidth="1"/>
-    <col min="2305" max="2305" width="14.42578125" customWidth="1"/>
-    <col min="2306" max="2306" width="27.7109375" customWidth="1"/>
-    <col min="2307" max="2307" width="18.42578125" customWidth="1"/>
-    <col min="2308" max="2308" width="34.5703125" customWidth="1"/>
-    <col min="2309" max="2309" width="25.7109375" customWidth="1"/>
-    <col min="2310" max="2310" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
-    <col min="2312" max="2312" width="28.28515625" customWidth="1"/>
-    <col min="2313" max="2313" width="27.7109375" customWidth="1"/>
-    <col min="2314" max="2314" width="27" customWidth="1"/>
-    <col min="2315" max="2315" width="34.28515625" customWidth="1"/>
-    <col min="2316" max="2316" width="13.42578125" customWidth="1"/>
-    <col min="2317" max="2317" width="11.42578125" customWidth="1"/>
-    <col min="2318" max="2318" width="13" customWidth="1"/>
-    <col min="2319" max="2319" width="14" customWidth="1"/>
-    <col min="2561" max="2561" width="14.42578125" customWidth="1"/>
-    <col min="2562" max="2562" width="27.7109375" customWidth="1"/>
-    <col min="2563" max="2563" width="18.42578125" customWidth="1"/>
-    <col min="2564" max="2564" width="34.5703125" customWidth="1"/>
-    <col min="2565" max="2565" width="25.7109375" customWidth="1"/>
-    <col min="2566" max="2566" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
-    <col min="2568" max="2568" width="28.28515625" customWidth="1"/>
-    <col min="2569" max="2569" width="27.7109375" customWidth="1"/>
-    <col min="2570" max="2570" width="27" customWidth="1"/>
-    <col min="2571" max="2571" width="34.28515625" customWidth="1"/>
-    <col min="2572" max="2572" width="13.42578125" customWidth="1"/>
-    <col min="2573" max="2573" width="11.42578125" customWidth="1"/>
-    <col min="2574" max="2574" width="13" customWidth="1"/>
-    <col min="2575" max="2575" width="14" customWidth="1"/>
-    <col min="2817" max="2817" width="14.42578125" customWidth="1"/>
-    <col min="2818" max="2818" width="27.7109375" customWidth="1"/>
-    <col min="2819" max="2819" width="18.42578125" customWidth="1"/>
-    <col min="2820" max="2820" width="34.5703125" customWidth="1"/>
-    <col min="2821" max="2821" width="25.7109375" customWidth="1"/>
-    <col min="2822" max="2822" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
-    <col min="2824" max="2824" width="28.28515625" customWidth="1"/>
-    <col min="2825" max="2825" width="27.7109375" customWidth="1"/>
-    <col min="2826" max="2826" width="27" customWidth="1"/>
-    <col min="2827" max="2827" width="34.28515625" customWidth="1"/>
-    <col min="2828" max="2828" width="13.42578125" customWidth="1"/>
-    <col min="2829" max="2829" width="11.42578125" customWidth="1"/>
-    <col min="2830" max="2830" width="13" customWidth="1"/>
-    <col min="2831" max="2831" width="14" customWidth="1"/>
-    <col min="3073" max="3073" width="14.42578125" customWidth="1"/>
-    <col min="3074" max="3074" width="27.7109375" customWidth="1"/>
-    <col min="3075" max="3075" width="18.42578125" customWidth="1"/>
-    <col min="3076" max="3076" width="34.5703125" customWidth="1"/>
-    <col min="3077" max="3077" width="25.7109375" customWidth="1"/>
-    <col min="3078" max="3078" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
-    <col min="3080" max="3080" width="28.28515625" customWidth="1"/>
-    <col min="3081" max="3081" width="27.7109375" customWidth="1"/>
-    <col min="3082" max="3082" width="27" customWidth="1"/>
-    <col min="3083" max="3083" width="34.28515625" customWidth="1"/>
-    <col min="3084" max="3084" width="13.42578125" customWidth="1"/>
-    <col min="3085" max="3085" width="11.42578125" customWidth="1"/>
-    <col min="3086" max="3086" width="13" customWidth="1"/>
-    <col min="3087" max="3087" width="14" customWidth="1"/>
-    <col min="3329" max="3329" width="14.42578125" customWidth="1"/>
-    <col min="3330" max="3330" width="27.7109375" customWidth="1"/>
-    <col min="3331" max="3331" width="18.42578125" customWidth="1"/>
-    <col min="3332" max="3332" width="34.5703125" customWidth="1"/>
-    <col min="3333" max="3333" width="25.7109375" customWidth="1"/>
-    <col min="3334" max="3334" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
-    <col min="3336" max="3336" width="28.28515625" customWidth="1"/>
-    <col min="3337" max="3337" width="27.7109375" customWidth="1"/>
-    <col min="3338" max="3338" width="27" customWidth="1"/>
-    <col min="3339" max="3339" width="34.28515625" customWidth="1"/>
-    <col min="3340" max="3340" width="13.42578125" customWidth="1"/>
-    <col min="3341" max="3341" width="11.42578125" customWidth="1"/>
-    <col min="3342" max="3342" width="13" customWidth="1"/>
-    <col min="3343" max="3343" width="14" customWidth="1"/>
-    <col min="3585" max="3585" width="14.42578125" customWidth="1"/>
-    <col min="3586" max="3586" width="27.7109375" customWidth="1"/>
-    <col min="3587" max="3587" width="18.42578125" customWidth="1"/>
-    <col min="3588" max="3588" width="34.5703125" customWidth="1"/>
-    <col min="3589" max="3589" width="25.7109375" customWidth="1"/>
-    <col min="3590" max="3590" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
-    <col min="3592" max="3592" width="28.28515625" customWidth="1"/>
-    <col min="3593" max="3593" width="27.7109375" customWidth="1"/>
-    <col min="3594" max="3594" width="27" customWidth="1"/>
-    <col min="3595" max="3595" width="34.28515625" customWidth="1"/>
-    <col min="3596" max="3596" width="13.42578125" customWidth="1"/>
-    <col min="3597" max="3597" width="11.42578125" customWidth="1"/>
-    <col min="3598" max="3598" width="13" customWidth="1"/>
-    <col min="3599" max="3599" width="14" customWidth="1"/>
-    <col min="3841" max="3841" width="14.42578125" customWidth="1"/>
-    <col min="3842" max="3842" width="27.7109375" customWidth="1"/>
-    <col min="3843" max="3843" width="18.42578125" customWidth="1"/>
-    <col min="3844" max="3844" width="34.5703125" customWidth="1"/>
-    <col min="3845" max="3845" width="25.7109375" customWidth="1"/>
-    <col min="3846" max="3846" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
-    <col min="3848" max="3848" width="28.28515625" customWidth="1"/>
-    <col min="3849" max="3849" width="27.7109375" customWidth="1"/>
-    <col min="3850" max="3850" width="27" customWidth="1"/>
-    <col min="3851" max="3851" width="34.28515625" customWidth="1"/>
-    <col min="3852" max="3852" width="13.42578125" customWidth="1"/>
-    <col min="3853" max="3853" width="11.42578125" customWidth="1"/>
-    <col min="3854" max="3854" width="13" customWidth="1"/>
-    <col min="3855" max="3855" width="14" customWidth="1"/>
-    <col min="4097" max="4097" width="14.42578125" customWidth="1"/>
-    <col min="4098" max="4098" width="27.7109375" customWidth="1"/>
-    <col min="4099" max="4099" width="18.42578125" customWidth="1"/>
-    <col min="4100" max="4100" width="34.5703125" customWidth="1"/>
-    <col min="4101" max="4101" width="25.7109375" customWidth="1"/>
-    <col min="4102" max="4102" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
-    <col min="4104" max="4104" width="28.28515625" customWidth="1"/>
-    <col min="4105" max="4105" width="27.7109375" customWidth="1"/>
-    <col min="4106" max="4106" width="27" customWidth="1"/>
-    <col min="4107" max="4107" width="34.28515625" customWidth="1"/>
-    <col min="4108" max="4108" width="13.42578125" customWidth="1"/>
-    <col min="4109" max="4109" width="11.42578125" customWidth="1"/>
-    <col min="4110" max="4110" width="13" customWidth="1"/>
-    <col min="4111" max="4111" width="14" customWidth="1"/>
-    <col min="4353" max="4353" width="14.42578125" customWidth="1"/>
-    <col min="4354" max="4354" width="27.7109375" customWidth="1"/>
-    <col min="4355" max="4355" width="18.42578125" customWidth="1"/>
-    <col min="4356" max="4356" width="34.5703125" customWidth="1"/>
-    <col min="4357" max="4357" width="25.7109375" customWidth="1"/>
-    <col min="4358" max="4358" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
-    <col min="4360" max="4360" width="28.28515625" customWidth="1"/>
-    <col min="4361" max="4361" width="27.7109375" customWidth="1"/>
-    <col min="4362" max="4362" width="27" customWidth="1"/>
-    <col min="4363" max="4363" width="34.28515625" customWidth="1"/>
-    <col min="4364" max="4364" width="13.42578125" customWidth="1"/>
-    <col min="4365" max="4365" width="11.42578125" customWidth="1"/>
-    <col min="4366" max="4366" width="13" customWidth="1"/>
-    <col min="4367" max="4367" width="14" customWidth="1"/>
-    <col min="4609" max="4609" width="14.42578125" customWidth="1"/>
-    <col min="4610" max="4610" width="27.7109375" customWidth="1"/>
-    <col min="4611" max="4611" width="18.42578125" customWidth="1"/>
-    <col min="4612" max="4612" width="34.5703125" customWidth="1"/>
-    <col min="4613" max="4613" width="25.7109375" customWidth="1"/>
-    <col min="4614" max="4614" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
-    <col min="4616" max="4616" width="28.28515625" customWidth="1"/>
-    <col min="4617" max="4617" width="27.7109375" customWidth="1"/>
-    <col min="4618" max="4618" width="27" customWidth="1"/>
-    <col min="4619" max="4619" width="34.28515625" customWidth="1"/>
-    <col min="4620" max="4620" width="13.42578125" customWidth="1"/>
-    <col min="4621" max="4621" width="11.42578125" customWidth="1"/>
-    <col min="4622" max="4622" width="13" customWidth="1"/>
-    <col min="4623" max="4623" width="14" customWidth="1"/>
-    <col min="4865" max="4865" width="14.42578125" customWidth="1"/>
-    <col min="4866" max="4866" width="27.7109375" customWidth="1"/>
-    <col min="4867" max="4867" width="18.42578125" customWidth="1"/>
-    <col min="4868" max="4868" width="34.5703125" customWidth="1"/>
-    <col min="4869" max="4869" width="25.7109375" customWidth="1"/>
-    <col min="4870" max="4870" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
-    <col min="4872" max="4872" width="28.28515625" customWidth="1"/>
-    <col min="4873" max="4873" width="27.7109375" customWidth="1"/>
-    <col min="4874" max="4874" width="27" customWidth="1"/>
-    <col min="4875" max="4875" width="34.28515625" customWidth="1"/>
-    <col min="4876" max="4876" width="13.42578125" customWidth="1"/>
-    <col min="4877" max="4877" width="11.42578125" customWidth="1"/>
-    <col min="4878" max="4878" width="13" customWidth="1"/>
-    <col min="4879" max="4879" width="14" customWidth="1"/>
-    <col min="5121" max="5121" width="14.42578125" customWidth="1"/>
-    <col min="5122" max="5122" width="27.7109375" customWidth="1"/>
-    <col min="5123" max="5123" width="18.42578125" customWidth="1"/>
-    <col min="5124" max="5124" width="34.5703125" customWidth="1"/>
-    <col min="5125" max="5125" width="25.7109375" customWidth="1"/>
-    <col min="5126" max="5126" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
-    <col min="5128" max="5128" width="28.28515625" customWidth="1"/>
-    <col min="5129" max="5129" width="27.7109375" customWidth="1"/>
-    <col min="5130" max="5130" width="27" customWidth="1"/>
-    <col min="5131" max="5131" width="34.28515625" customWidth="1"/>
-    <col min="5132" max="5132" width="13.42578125" customWidth="1"/>
-    <col min="5133" max="5133" width="11.42578125" customWidth="1"/>
-    <col min="5134" max="5134" width="13" customWidth="1"/>
-    <col min="5135" max="5135" width="14" customWidth="1"/>
-    <col min="5377" max="5377" width="14.42578125" customWidth="1"/>
-    <col min="5378" max="5378" width="27.7109375" customWidth="1"/>
-    <col min="5379" max="5379" width="18.42578125" customWidth="1"/>
-    <col min="5380" max="5380" width="34.5703125" customWidth="1"/>
-    <col min="5381" max="5381" width="25.7109375" customWidth="1"/>
-    <col min="5382" max="5382" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
-    <col min="5384" max="5384" width="28.28515625" customWidth="1"/>
-    <col min="5385" max="5385" width="27.7109375" customWidth="1"/>
-    <col min="5386" max="5386" width="27" customWidth="1"/>
-    <col min="5387" max="5387" width="34.28515625" customWidth="1"/>
-    <col min="5388" max="5388" width="13.42578125" customWidth="1"/>
-    <col min="5389" max="5389" width="11.42578125" customWidth="1"/>
-    <col min="5390" max="5390" width="13" customWidth="1"/>
-    <col min="5391" max="5391" width="14" customWidth="1"/>
-    <col min="5633" max="5633" width="14.42578125" customWidth="1"/>
-    <col min="5634" max="5634" width="27.7109375" customWidth="1"/>
-    <col min="5635" max="5635" width="18.42578125" customWidth="1"/>
-    <col min="5636" max="5636" width="34.5703125" customWidth="1"/>
-    <col min="5637" max="5637" width="25.7109375" customWidth="1"/>
-    <col min="5638" max="5638" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
-    <col min="5640" max="5640" width="28.28515625" customWidth="1"/>
-    <col min="5641" max="5641" width="27.7109375" customWidth="1"/>
-    <col min="5642" max="5642" width="27" customWidth="1"/>
-    <col min="5643" max="5643" width="34.28515625" customWidth="1"/>
-    <col min="5644" max="5644" width="13.42578125" customWidth="1"/>
-    <col min="5645" max="5645" width="11.42578125" customWidth="1"/>
-    <col min="5646" max="5646" width="13" customWidth="1"/>
-    <col min="5647" max="5647" width="14" customWidth="1"/>
-    <col min="5889" max="5889" width="14.42578125" customWidth="1"/>
-    <col min="5890" max="5890" width="27.7109375" customWidth="1"/>
-    <col min="5891" max="5891" width="18.42578125" customWidth="1"/>
-    <col min="5892" max="5892" width="34.5703125" customWidth="1"/>
-    <col min="5893" max="5893" width="25.7109375" customWidth="1"/>
-    <col min="5894" max="5894" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
-    <col min="5896" max="5896" width="28.28515625" customWidth="1"/>
-    <col min="5897" max="5897" width="27.7109375" customWidth="1"/>
-    <col min="5898" max="5898" width="27" customWidth="1"/>
-    <col min="5899" max="5899" width="34.28515625" customWidth="1"/>
-    <col min="5900" max="5900" width="13.42578125" customWidth="1"/>
-    <col min="5901" max="5901" width="11.42578125" customWidth="1"/>
-    <col min="5902" max="5902" width="13" customWidth="1"/>
-    <col min="5903" max="5903" width="14" customWidth="1"/>
-    <col min="6145" max="6145" width="14.42578125" customWidth="1"/>
-    <col min="6146" max="6146" width="27.7109375" customWidth="1"/>
-    <col min="6147" max="6147" width="18.42578125" customWidth="1"/>
-    <col min="6148" max="6148" width="34.5703125" customWidth="1"/>
-    <col min="6149" max="6149" width="25.7109375" customWidth="1"/>
-    <col min="6150" max="6150" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
-    <col min="6152" max="6152" width="28.28515625" customWidth="1"/>
-    <col min="6153" max="6153" width="27.7109375" customWidth="1"/>
-    <col min="6154" max="6154" width="27" customWidth="1"/>
-    <col min="6155" max="6155" width="34.28515625" customWidth="1"/>
-    <col min="6156" max="6156" width="13.42578125" customWidth="1"/>
-    <col min="6157" max="6157" width="11.42578125" customWidth="1"/>
-    <col min="6158" max="6158" width="13" customWidth="1"/>
-    <col min="6159" max="6159" width="14" customWidth="1"/>
-    <col min="6401" max="6401" width="14.42578125" customWidth="1"/>
-    <col min="6402" max="6402" width="27.7109375" customWidth="1"/>
-    <col min="6403" max="6403" width="18.42578125" customWidth="1"/>
-    <col min="6404" max="6404" width="34.5703125" customWidth="1"/>
-    <col min="6405" max="6405" width="25.7109375" customWidth="1"/>
-    <col min="6406" max="6406" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
-    <col min="6408" max="6408" width="28.28515625" customWidth="1"/>
-    <col min="6409" max="6409" width="27.7109375" customWidth="1"/>
-    <col min="6410" max="6410" width="27" customWidth="1"/>
-    <col min="6411" max="6411" width="34.28515625" customWidth="1"/>
-    <col min="6412" max="6412" width="13.42578125" customWidth="1"/>
-    <col min="6413" max="6413" width="11.42578125" customWidth="1"/>
-    <col min="6414" max="6414" width="13" customWidth="1"/>
-    <col min="6415" max="6415" width="14" customWidth="1"/>
-    <col min="6657" max="6657" width="14.42578125" customWidth="1"/>
-    <col min="6658" max="6658" width="27.7109375" customWidth="1"/>
-    <col min="6659" max="6659" width="18.42578125" customWidth="1"/>
-    <col min="6660" max="6660" width="34.5703125" customWidth="1"/>
-    <col min="6661" max="6661" width="25.7109375" customWidth="1"/>
-    <col min="6662" max="6662" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
-    <col min="6664" max="6664" width="28.28515625" customWidth="1"/>
-    <col min="6665" max="6665" width="27.7109375" customWidth="1"/>
-    <col min="6666" max="6666" width="27" customWidth="1"/>
-    <col min="6667" max="6667" width="34.28515625" customWidth="1"/>
-    <col min="6668" max="6668" width="13.42578125" customWidth="1"/>
-    <col min="6669" max="6669" width="11.42578125" customWidth="1"/>
-    <col min="6670" max="6670" width="13" customWidth="1"/>
-    <col min="6671" max="6671" width="14" customWidth="1"/>
-    <col min="6913" max="6913" width="14.42578125" customWidth="1"/>
-    <col min="6914" max="6914" width="27.7109375" customWidth="1"/>
-    <col min="6915" max="6915" width="18.42578125" customWidth="1"/>
-    <col min="6916" max="6916" width="34.5703125" customWidth="1"/>
-    <col min="6917" max="6917" width="25.7109375" customWidth="1"/>
-    <col min="6918" max="6918" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
-    <col min="6920" max="6920" width="28.28515625" customWidth="1"/>
-    <col min="6921" max="6921" width="27.7109375" customWidth="1"/>
-    <col min="6922" max="6922" width="27" customWidth="1"/>
-    <col min="6923" max="6923" width="34.28515625" customWidth="1"/>
-    <col min="6924" max="6924" width="13.42578125" customWidth="1"/>
-    <col min="6925" max="6925" width="11.42578125" customWidth="1"/>
-    <col min="6926" max="6926" width="13" customWidth="1"/>
-    <col min="6927" max="6927" width="14" customWidth="1"/>
-    <col min="7169" max="7169" width="14.42578125" customWidth="1"/>
-    <col min="7170" max="7170" width="27.7109375" customWidth="1"/>
-    <col min="7171" max="7171" width="18.42578125" customWidth="1"/>
-    <col min="7172" max="7172" width="34.5703125" customWidth="1"/>
-    <col min="7173" max="7173" width="25.7109375" customWidth="1"/>
-    <col min="7174" max="7174" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
-    <col min="7176" max="7176" width="28.28515625" customWidth="1"/>
-    <col min="7177" max="7177" width="27.7109375" customWidth="1"/>
-    <col min="7178" max="7178" width="27" customWidth="1"/>
-    <col min="7179" max="7179" width="34.28515625" customWidth="1"/>
-    <col min="7180" max="7180" width="13.42578125" customWidth="1"/>
-    <col min="7181" max="7181" width="11.42578125" customWidth="1"/>
-    <col min="7182" max="7182" width="13" customWidth="1"/>
-    <col min="7183" max="7183" width="14" customWidth="1"/>
-    <col min="7425" max="7425" width="14.42578125" customWidth="1"/>
-    <col min="7426" max="7426" width="27.7109375" customWidth="1"/>
-    <col min="7427" max="7427" width="18.42578125" customWidth="1"/>
-    <col min="7428" max="7428" width="34.5703125" customWidth="1"/>
-    <col min="7429" max="7429" width="25.7109375" customWidth="1"/>
-    <col min="7430" max="7430" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
-    <col min="7432" max="7432" width="28.28515625" customWidth="1"/>
-    <col min="7433" max="7433" width="27.7109375" customWidth="1"/>
-    <col min="7434" max="7434" width="27" customWidth="1"/>
-    <col min="7435" max="7435" width="34.28515625" customWidth="1"/>
-    <col min="7436" max="7436" width="13.42578125" customWidth="1"/>
-    <col min="7437" max="7437" width="11.42578125" customWidth="1"/>
-    <col min="7438" max="7438" width="13" customWidth="1"/>
-    <col min="7439" max="7439" width="14" customWidth="1"/>
-    <col min="7681" max="7681" width="14.42578125" customWidth="1"/>
-    <col min="7682" max="7682" width="27.7109375" customWidth="1"/>
-    <col min="7683" max="7683" width="18.42578125" customWidth="1"/>
-    <col min="7684" max="7684" width="34.5703125" customWidth="1"/>
-    <col min="7685" max="7685" width="25.7109375" customWidth="1"/>
-    <col min="7686" max="7686" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
-    <col min="7688" max="7688" width="28.28515625" customWidth="1"/>
-    <col min="7689" max="7689" width="27.7109375" customWidth="1"/>
-    <col min="7690" max="7690" width="27" customWidth="1"/>
-    <col min="7691" max="7691" width="34.28515625" customWidth="1"/>
-    <col min="7692" max="7692" width="13.42578125" customWidth="1"/>
-    <col min="7693" max="7693" width="11.42578125" customWidth="1"/>
-    <col min="7694" max="7694" width="13" customWidth="1"/>
-    <col min="7695" max="7695" width="14" customWidth="1"/>
-    <col min="7937" max="7937" width="14.42578125" customWidth="1"/>
-    <col min="7938" max="7938" width="27.7109375" customWidth="1"/>
-    <col min="7939" max="7939" width="18.42578125" customWidth="1"/>
-    <col min="7940" max="7940" width="34.5703125" customWidth="1"/>
-    <col min="7941" max="7941" width="25.7109375" customWidth="1"/>
-    <col min="7942" max="7942" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
-    <col min="7944" max="7944" width="28.28515625" customWidth="1"/>
-    <col min="7945" max="7945" width="27.7109375" customWidth="1"/>
-    <col min="7946" max="7946" width="27" customWidth="1"/>
-    <col min="7947" max="7947" width="34.28515625" customWidth="1"/>
-    <col min="7948" max="7948" width="13.42578125" customWidth="1"/>
-    <col min="7949" max="7949" width="11.42578125" customWidth="1"/>
-    <col min="7950" max="7950" width="13" customWidth="1"/>
-    <col min="7951" max="7951" width="14" customWidth="1"/>
-    <col min="8193" max="8193" width="14.42578125" customWidth="1"/>
-    <col min="8194" max="8194" width="27.7109375" customWidth="1"/>
-    <col min="8195" max="8195" width="18.42578125" customWidth="1"/>
-    <col min="8196" max="8196" width="34.5703125" customWidth="1"/>
-    <col min="8197" max="8197" width="25.7109375" customWidth="1"/>
-    <col min="8198" max="8198" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
-    <col min="8200" max="8200" width="28.28515625" customWidth="1"/>
-    <col min="8201" max="8201" width="27.7109375" customWidth="1"/>
-    <col min="8202" max="8202" width="27" customWidth="1"/>
-    <col min="8203" max="8203" width="34.28515625" customWidth="1"/>
-    <col min="8204" max="8204" width="13.42578125" customWidth="1"/>
-    <col min="8205" max="8205" width="11.42578125" customWidth="1"/>
-    <col min="8206" max="8206" width="13" customWidth="1"/>
-    <col min="8207" max="8207" width="14" customWidth="1"/>
-    <col min="8449" max="8449" width="14.42578125" customWidth="1"/>
-    <col min="8450" max="8450" width="27.7109375" customWidth="1"/>
-    <col min="8451" max="8451" width="18.42578125" customWidth="1"/>
-    <col min="8452" max="8452" width="34.5703125" customWidth="1"/>
-    <col min="8453" max="8453" width="25.7109375" customWidth="1"/>
-    <col min="8454" max="8454" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
-    <col min="8456" max="8456" width="28.28515625" customWidth="1"/>
-    <col min="8457" max="8457" width="27.7109375" customWidth="1"/>
-    <col min="8458" max="8458" width="27" customWidth="1"/>
-    <col min="8459" max="8459" width="34.28515625" customWidth="1"/>
-    <col min="8460" max="8460" width="13.42578125" customWidth="1"/>
-    <col min="8461" max="8461" width="11.42578125" customWidth="1"/>
-    <col min="8462" max="8462" width="13" customWidth="1"/>
-    <col min="8463" max="8463" width="14" customWidth="1"/>
-    <col min="8705" max="8705" width="14.42578125" customWidth="1"/>
-    <col min="8706" max="8706" width="27.7109375" customWidth="1"/>
-    <col min="8707" max="8707" width="18.42578125" customWidth="1"/>
-    <col min="8708" max="8708" width="34.5703125" customWidth="1"/>
-    <col min="8709" max="8709" width="25.7109375" customWidth="1"/>
-    <col min="8710" max="8710" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
-    <col min="8712" max="8712" width="28.28515625" customWidth="1"/>
-    <col min="8713" max="8713" width="27.7109375" customWidth="1"/>
-    <col min="8714" max="8714" width="27" customWidth="1"/>
-    <col min="8715" max="8715" width="34.28515625" customWidth="1"/>
-    <col min="8716" max="8716" width="13.42578125" customWidth="1"/>
-    <col min="8717" max="8717" width="11.42578125" customWidth="1"/>
-    <col min="8718" max="8718" width="13" customWidth="1"/>
-    <col min="8719" max="8719" width="14" customWidth="1"/>
-    <col min="8961" max="8961" width="14.42578125" customWidth="1"/>
-    <col min="8962" max="8962" width="27.7109375" customWidth="1"/>
-    <col min="8963" max="8963" width="18.42578125" customWidth="1"/>
-    <col min="8964" max="8964" width="34.5703125" customWidth="1"/>
-    <col min="8965" max="8965" width="25.7109375" customWidth="1"/>
-    <col min="8966" max="8966" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
-    <col min="8968" max="8968" width="28.28515625" customWidth="1"/>
-    <col min="8969" max="8969" width="27.7109375" customWidth="1"/>
-    <col min="8970" max="8970" width="27" customWidth="1"/>
-    <col min="8971" max="8971" width="34.28515625" customWidth="1"/>
-    <col min="8972" max="8972" width="13.42578125" customWidth="1"/>
-    <col min="8973" max="8973" width="11.42578125" customWidth="1"/>
-    <col min="8974" max="8974" width="13" customWidth="1"/>
-    <col min="8975" max="8975" width="14" customWidth="1"/>
-    <col min="9217" max="9217" width="14.42578125" customWidth="1"/>
-    <col min="9218" max="9218" width="27.7109375" customWidth="1"/>
-    <col min="9219" max="9219" width="18.42578125" customWidth="1"/>
-    <col min="9220" max="9220" width="34.5703125" customWidth="1"/>
-    <col min="9221" max="9221" width="25.7109375" customWidth="1"/>
-    <col min="9222" max="9222" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
-    <col min="9224" max="9224" width="28.28515625" customWidth="1"/>
-    <col min="9225" max="9225" width="27.7109375" customWidth="1"/>
-    <col min="9226" max="9226" width="27" customWidth="1"/>
-    <col min="9227" max="9227" width="34.28515625" customWidth="1"/>
-    <col min="9228" max="9228" width="13.42578125" customWidth="1"/>
-    <col min="9229" max="9229" width="11.42578125" customWidth="1"/>
-    <col min="9230" max="9230" width="13" customWidth="1"/>
-    <col min="9231" max="9231" width="14" customWidth="1"/>
-    <col min="9473" max="9473" width="14.42578125" customWidth="1"/>
-    <col min="9474" max="9474" width="27.7109375" customWidth="1"/>
-    <col min="9475" max="9475" width="18.42578125" customWidth="1"/>
-    <col min="9476" max="9476" width="34.5703125" customWidth="1"/>
-    <col min="9477" max="9477" width="25.7109375" customWidth="1"/>
-    <col min="9478" max="9478" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
-    <col min="9480" max="9480" width="28.28515625" customWidth="1"/>
-    <col min="9481" max="9481" width="27.7109375" customWidth="1"/>
-    <col min="9482" max="9482" width="27" customWidth="1"/>
-    <col min="9483" max="9483" width="34.28515625" customWidth="1"/>
-    <col min="9484" max="9484" width="13.42578125" customWidth="1"/>
-    <col min="9485" max="9485" width="11.42578125" customWidth="1"/>
-    <col min="9486" max="9486" width="13" customWidth="1"/>
-    <col min="9487" max="9487" width="14" customWidth="1"/>
-    <col min="9729" max="9729" width="14.42578125" customWidth="1"/>
-    <col min="9730" max="9730" width="27.7109375" customWidth="1"/>
-    <col min="9731" max="9731" width="18.42578125" customWidth="1"/>
-    <col min="9732" max="9732" width="34.5703125" customWidth="1"/>
-    <col min="9733" max="9733" width="25.7109375" customWidth="1"/>
-    <col min="9734" max="9734" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
-    <col min="9736" max="9736" width="28.28515625" customWidth="1"/>
-    <col min="9737" max="9737" width="27.7109375" customWidth="1"/>
-    <col min="9738" max="9738" width="27" customWidth="1"/>
-    <col min="9739" max="9739" width="34.28515625" customWidth="1"/>
-    <col min="9740" max="9740" width="13.42578125" customWidth="1"/>
-    <col min="9741" max="9741" width="11.42578125" customWidth="1"/>
-    <col min="9742" max="9742" width="13" customWidth="1"/>
-    <col min="9743" max="9743" width="14" customWidth="1"/>
-    <col min="9985" max="9985" width="14.42578125" customWidth="1"/>
-    <col min="9986" max="9986" width="27.7109375" customWidth="1"/>
-    <col min="9987" max="9987" width="18.42578125" customWidth="1"/>
-    <col min="9988" max="9988" width="34.5703125" customWidth="1"/>
-    <col min="9989" max="9989" width="25.7109375" customWidth="1"/>
-    <col min="9990" max="9990" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
-    <col min="9992" max="9992" width="28.28515625" customWidth="1"/>
-    <col min="9993" max="9993" width="27.7109375" customWidth="1"/>
-    <col min="9994" max="9994" width="27" customWidth="1"/>
-    <col min="9995" max="9995" width="34.28515625" customWidth="1"/>
-    <col min="9996" max="9996" width="13.42578125" customWidth="1"/>
-    <col min="9997" max="9997" width="11.42578125" customWidth="1"/>
-    <col min="9998" max="9998" width="13" customWidth="1"/>
-    <col min="9999" max="9999" width="14" customWidth="1"/>
-    <col min="10241" max="10241" width="14.42578125" customWidth="1"/>
-    <col min="10242" max="10242" width="27.7109375" customWidth="1"/>
-    <col min="10243" max="10243" width="18.42578125" customWidth="1"/>
-    <col min="10244" max="10244" width="34.5703125" customWidth="1"/>
-    <col min="10245" max="10245" width="25.7109375" customWidth="1"/>
-    <col min="10246" max="10246" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
-    <col min="10248" max="10248" width="28.28515625" customWidth="1"/>
-    <col min="10249" max="10249" width="27.7109375" customWidth="1"/>
-    <col min="10250" max="10250" width="27" customWidth="1"/>
-    <col min="10251" max="10251" width="34.28515625" customWidth="1"/>
-    <col min="10252" max="10252" width="13.42578125" customWidth="1"/>
-    <col min="10253" max="10253" width="11.42578125" customWidth="1"/>
-    <col min="10254" max="10254" width="13" customWidth="1"/>
-    <col min="10255" max="10255" width="14" customWidth="1"/>
-    <col min="10497" max="10497" width="14.42578125" customWidth="1"/>
-    <col min="10498" max="10498" width="27.7109375" customWidth="1"/>
-    <col min="10499" max="10499" width="18.42578125" customWidth="1"/>
-    <col min="10500" max="10500" width="34.5703125" customWidth="1"/>
-    <col min="10501" max="10501" width="25.7109375" customWidth="1"/>
-    <col min="10502" max="10502" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
-    <col min="10504" max="10504" width="28.28515625" customWidth="1"/>
-    <col min="10505" max="10505" width="27.7109375" customWidth="1"/>
-    <col min="10506" max="10506" width="27" customWidth="1"/>
-    <col min="10507" max="10507" width="34.28515625" customWidth="1"/>
-    <col min="10508" max="10508" width="13.42578125" customWidth="1"/>
-    <col min="10509" max="10509" width="11.42578125" customWidth="1"/>
-    <col min="10510" max="10510" width="13" customWidth="1"/>
-    <col min="10511" max="10511" width="14" customWidth="1"/>
-    <col min="10753" max="10753" width="14.42578125" customWidth="1"/>
-    <col min="10754" max="10754" width="27.7109375" customWidth="1"/>
-    <col min="10755" max="10755" width="18.42578125" customWidth="1"/>
-    <col min="10756" max="10756" width="34.5703125" customWidth="1"/>
-    <col min="10757" max="10757" width="25.7109375" customWidth="1"/>
-    <col min="10758" max="10758" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
-    <col min="10760" max="10760" width="28.28515625" customWidth="1"/>
-    <col min="10761" max="10761" width="27.7109375" customWidth="1"/>
-    <col min="10762" max="10762" width="27" customWidth="1"/>
-    <col min="10763" max="10763" width="34.28515625" customWidth="1"/>
-    <col min="10764" max="10764" width="13.42578125" customWidth="1"/>
-    <col min="10765" max="10765" width="11.42578125" customWidth="1"/>
-    <col min="10766" max="10766" width="13" customWidth="1"/>
-    <col min="10767" max="10767" width="14" customWidth="1"/>
-    <col min="11009" max="11009" width="14.42578125" customWidth="1"/>
-    <col min="11010" max="11010" width="27.7109375" customWidth="1"/>
-    <col min="11011" max="11011" width="18.42578125" customWidth="1"/>
-    <col min="11012" max="11012" width="34.5703125" customWidth="1"/>
-    <col min="11013" max="11013" width="25.7109375" customWidth="1"/>
-    <col min="11014" max="11014" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
-    <col min="11016" max="11016" width="28.28515625" customWidth="1"/>
-    <col min="11017" max="11017" width="27.7109375" customWidth="1"/>
-    <col min="11018" max="11018" width="27" customWidth="1"/>
-    <col min="11019" max="11019" width="34.28515625" customWidth="1"/>
-    <col min="11020" max="11020" width="13.42578125" customWidth="1"/>
-    <col min="11021" max="11021" width="11.42578125" customWidth="1"/>
-    <col min="11022" max="11022" width="13" customWidth="1"/>
-    <col min="11023" max="11023" width="14" customWidth="1"/>
-    <col min="11265" max="11265" width="14.42578125" customWidth="1"/>
-    <col min="11266" max="11266" width="27.7109375" customWidth="1"/>
-    <col min="11267" max="11267" width="18.42578125" customWidth="1"/>
-    <col min="11268" max="11268" width="34.5703125" customWidth="1"/>
-    <col min="11269" max="11269" width="25.7109375" customWidth="1"/>
-    <col min="11270" max="11270" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
-    <col min="11272" max="11272" width="28.28515625" customWidth="1"/>
-    <col min="11273" max="11273" width="27.7109375" customWidth="1"/>
-    <col min="11274" max="11274" width="27" customWidth="1"/>
-    <col min="11275" max="11275" width="34.28515625" customWidth="1"/>
-    <col min="11276" max="11276" width="13.42578125" customWidth="1"/>
-    <col min="11277" max="11277" width="11.42578125" customWidth="1"/>
-    <col min="11278" max="11278" width="13" customWidth="1"/>
-    <col min="11279" max="11279" width="14" customWidth="1"/>
-    <col min="11521" max="11521" width="14.42578125" customWidth="1"/>
-    <col min="11522" max="11522" width="27.7109375" customWidth="1"/>
-    <col min="11523" max="11523" width="18.42578125" customWidth="1"/>
-    <col min="11524" max="11524" width="34.5703125" customWidth="1"/>
-    <col min="11525" max="11525" width="25.7109375" customWidth="1"/>
-    <col min="11526" max="11526" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
-    <col min="11528" max="11528" width="28.28515625" customWidth="1"/>
-    <col min="11529" max="11529" width="27.7109375" customWidth="1"/>
-    <col min="11530" max="11530" width="27" customWidth="1"/>
-    <col min="11531" max="11531" width="34.28515625" customWidth="1"/>
-    <col min="11532" max="11532" width="13.42578125" customWidth="1"/>
-    <col min="11533" max="11533" width="11.42578125" customWidth="1"/>
-    <col min="11534" max="11534" width="13" customWidth="1"/>
-    <col min="11535" max="11535" width="14" customWidth="1"/>
-    <col min="11777" max="11777" width="14.42578125" customWidth="1"/>
-    <col min="11778" max="11778" width="27.7109375" customWidth="1"/>
-    <col min="11779" max="11779" width="18.42578125" customWidth="1"/>
-    <col min="11780" max="11780" width="34.5703125" customWidth="1"/>
-    <col min="11781" max="11781" width="25.7109375" customWidth="1"/>
-    <col min="11782" max="11782" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
-    <col min="11784" max="11784" width="28.28515625" customWidth="1"/>
-    <col min="11785" max="11785" width="27.7109375" customWidth="1"/>
-    <col min="11786" max="11786" width="27" customWidth="1"/>
-    <col min="11787" max="11787" width="34.28515625" customWidth="1"/>
-    <col min="11788" max="11788" width="13.42578125" customWidth="1"/>
-    <col min="11789" max="11789" width="11.42578125" customWidth="1"/>
-    <col min="11790" max="11790" width="13" customWidth="1"/>
-    <col min="11791" max="11791" width="14" customWidth="1"/>
-    <col min="12033" max="12033" width="14.42578125" customWidth="1"/>
-    <col min="12034" max="12034" width="27.7109375" customWidth="1"/>
-    <col min="12035" max="12035" width="18.42578125" customWidth="1"/>
-    <col min="12036" max="12036" width="34.5703125" customWidth="1"/>
-    <col min="12037" max="12037" width="25.7109375" customWidth="1"/>
-    <col min="12038" max="12038" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
-    <col min="12040" max="12040" width="28.28515625" customWidth="1"/>
-    <col min="12041" max="12041" width="27.7109375" customWidth="1"/>
-    <col min="12042" max="12042" width="27" customWidth="1"/>
-    <col min="12043" max="12043" width="34.28515625" customWidth="1"/>
-    <col min="12044" max="12044" width="13.42578125" customWidth="1"/>
-    <col min="12045" max="12045" width="11.42578125" customWidth="1"/>
-    <col min="12046" max="12046" width="13" customWidth="1"/>
-    <col min="12047" max="12047" width="14" customWidth="1"/>
-    <col min="12289" max="12289" width="14.42578125" customWidth="1"/>
-    <col min="12290" max="12290" width="27.7109375" customWidth="1"/>
-    <col min="12291" max="12291" width="18.42578125" customWidth="1"/>
-    <col min="12292" max="12292" width="34.5703125" customWidth="1"/>
-    <col min="12293" max="12293" width="25.7109375" customWidth="1"/>
-    <col min="12294" max="12294" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
-    <col min="12296" max="12296" width="28.28515625" customWidth="1"/>
-    <col min="12297" max="12297" width="27.7109375" customWidth="1"/>
-    <col min="12298" max="12298" width="27" customWidth="1"/>
-    <col min="12299" max="12299" width="34.28515625" customWidth="1"/>
-    <col min="12300" max="12300" width="13.42578125" customWidth="1"/>
-    <col min="12301" max="12301" width="11.42578125" customWidth="1"/>
-    <col min="12302" max="12302" width="13" customWidth="1"/>
-    <col min="12303" max="12303" width="14" customWidth="1"/>
-    <col min="12545" max="12545" width="14.42578125" customWidth="1"/>
-    <col min="12546" max="12546" width="27.7109375" customWidth="1"/>
-    <col min="12547" max="12547" width="18.42578125" customWidth="1"/>
-    <col min="12548" max="12548" width="34.5703125" customWidth="1"/>
-    <col min="12549" max="12549" width="25.7109375" customWidth="1"/>
-    <col min="12550" max="12550" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
-    <col min="12552" max="12552" width="28.28515625" customWidth="1"/>
-    <col min="12553" max="12553" width="27.7109375" customWidth="1"/>
-    <col min="12554" max="12554" width="27" customWidth="1"/>
-    <col min="12555" max="12555" width="34.28515625" customWidth="1"/>
-    <col min="12556" max="12556" width="13.42578125" customWidth="1"/>
-    <col min="12557" max="12557" width="11.42578125" customWidth="1"/>
-    <col min="12558" max="12558" width="13" customWidth="1"/>
-    <col min="12559" max="12559" width="14" customWidth="1"/>
-    <col min="12801" max="12801" width="14.42578125" customWidth="1"/>
-    <col min="12802" max="12802" width="27.7109375" customWidth="1"/>
-    <col min="12803" max="12803" width="18.42578125" customWidth="1"/>
-    <col min="12804" max="12804" width="34.5703125" customWidth="1"/>
-    <col min="12805" max="12805" width="25.7109375" customWidth="1"/>
-    <col min="12806" max="12806" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
-    <col min="12808" max="12808" width="28.28515625" customWidth="1"/>
-    <col min="12809" max="12809" width="27.7109375" customWidth="1"/>
-    <col min="12810" max="12810" width="27" customWidth="1"/>
-    <col min="12811" max="12811" width="34.28515625" customWidth="1"/>
-    <col min="12812" max="12812" width="13.42578125" customWidth="1"/>
-    <col min="12813" max="12813" width="11.42578125" customWidth="1"/>
-    <col min="12814" max="12814" width="13" customWidth="1"/>
-    <col min="12815" max="12815" width="14" customWidth="1"/>
-    <col min="13057" max="13057" width="14.42578125" customWidth="1"/>
-    <col min="13058" max="13058" width="27.7109375" customWidth="1"/>
-    <col min="13059" max="13059" width="18.42578125" customWidth="1"/>
-    <col min="13060" max="13060" width="34.5703125" customWidth="1"/>
-    <col min="13061" max="13061" width="25.7109375" customWidth="1"/>
-    <col min="13062" max="13062" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
-    <col min="13064" max="13064" width="28.28515625" customWidth="1"/>
-    <col min="13065" max="13065" width="27.7109375" customWidth="1"/>
-    <col min="13066" max="13066" width="27" customWidth="1"/>
-    <col min="13067" max="13067" width="34.28515625" customWidth="1"/>
-    <col min="13068" max="13068" width="13.42578125" customWidth="1"/>
-    <col min="13069" max="13069" width="11.42578125" customWidth="1"/>
-    <col min="13070" max="13070" width="13" customWidth="1"/>
-    <col min="13071" max="13071" width="14" customWidth="1"/>
-    <col min="13313" max="13313" width="14.42578125" customWidth="1"/>
-    <col min="13314" max="13314" width="27.7109375" customWidth="1"/>
-    <col min="13315" max="13315" width="18.42578125" customWidth="1"/>
-    <col min="13316" max="13316" width="34.5703125" customWidth="1"/>
-    <col min="13317" max="13317" width="25.7109375" customWidth="1"/>
-    <col min="13318" max="13318" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
-    <col min="13320" max="13320" width="28.28515625" customWidth="1"/>
-    <col min="13321" max="13321" width="27.7109375" customWidth="1"/>
-    <col min="13322" max="13322" width="27" customWidth="1"/>
-    <col min="13323" max="13323" width="34.28515625" customWidth="1"/>
-    <col min="13324" max="13324" width="13.42578125" customWidth="1"/>
-    <col min="13325" max="13325" width="11.42578125" customWidth="1"/>
-    <col min="13326" max="13326" width="13" customWidth="1"/>
-    <col min="13327" max="13327" width="14" customWidth="1"/>
-    <col min="13569" max="13569" width="14.42578125" customWidth="1"/>
-    <col min="13570" max="13570" width="27.7109375" customWidth="1"/>
-    <col min="13571" max="13571" width="18.42578125" customWidth="1"/>
-    <col min="13572" max="13572" width="34.5703125" customWidth="1"/>
-    <col min="13573" max="13573" width="25.7109375" customWidth="1"/>
-    <col min="13574" max="13574" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
-    <col min="13576" max="13576" width="28.28515625" customWidth="1"/>
-    <col min="13577" max="13577" width="27.7109375" customWidth="1"/>
-    <col min="13578" max="13578" width="27" customWidth="1"/>
-    <col min="13579" max="13579" width="34.28515625" customWidth="1"/>
-    <col min="13580" max="13580" width="13.42578125" customWidth="1"/>
-    <col min="13581" max="13581" width="11.42578125" customWidth="1"/>
-    <col min="13582" max="13582" width="13" customWidth="1"/>
-    <col min="13583" max="13583" width="14" customWidth="1"/>
-    <col min="13825" max="13825" width="14.42578125" customWidth="1"/>
-    <col min="13826" max="13826" width="27.7109375" customWidth="1"/>
-    <col min="13827" max="13827" width="18.42578125" customWidth="1"/>
-    <col min="13828" max="13828" width="34.5703125" customWidth="1"/>
-    <col min="13829" max="13829" width="25.7109375" customWidth="1"/>
-    <col min="13830" max="13830" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
-    <col min="13832" max="13832" width="28.28515625" customWidth="1"/>
-    <col min="13833" max="13833" width="27.7109375" customWidth="1"/>
-    <col min="13834" max="13834" width="27" customWidth="1"/>
-    <col min="13835" max="13835" width="34.28515625" customWidth="1"/>
-    <col min="13836" max="13836" width="13.42578125" customWidth="1"/>
-    <col min="13837" max="13837" width="11.42578125" customWidth="1"/>
-    <col min="13838" max="13838" width="13" customWidth="1"/>
-    <col min="13839" max="13839" width="14" customWidth="1"/>
-    <col min="14081" max="14081" width="14.42578125" customWidth="1"/>
-    <col min="14082" max="14082" width="27.7109375" customWidth="1"/>
-    <col min="14083" max="14083" width="18.42578125" customWidth="1"/>
-    <col min="14084" max="14084" width="34.5703125" customWidth="1"/>
-    <col min="14085" max="14085" width="25.7109375" customWidth="1"/>
-    <col min="14086" max="14086" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
-    <col min="14088" max="14088" width="28.28515625" customWidth="1"/>
-    <col min="14089" max="14089" width="27.7109375" customWidth="1"/>
-    <col min="14090" max="14090" width="27" customWidth="1"/>
-    <col min="14091" max="14091" width="34.28515625" customWidth="1"/>
-    <col min="14092" max="14092" width="13.42578125" customWidth="1"/>
-    <col min="14093" max="14093" width="11.42578125" customWidth="1"/>
-    <col min="14094" max="14094" width="13" customWidth="1"/>
-    <col min="14095" max="14095" width="14" customWidth="1"/>
-    <col min="14337" max="14337" width="14.42578125" customWidth="1"/>
-    <col min="14338" max="14338" width="27.7109375" customWidth="1"/>
-    <col min="14339" max="14339" width="18.42578125" customWidth="1"/>
-    <col min="14340" max="14340" width="34.5703125" customWidth="1"/>
-    <col min="14341" max="14341" width="25.7109375" customWidth="1"/>
-    <col min="14342" max="14342" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
-    <col min="14344" max="14344" width="28.28515625" customWidth="1"/>
-    <col min="14345" max="14345" width="27.7109375" customWidth="1"/>
-    <col min="14346" max="14346" width="27" customWidth="1"/>
-    <col min="14347" max="14347" width="34.28515625" customWidth="1"/>
-    <col min="14348" max="14348" width="13.42578125" customWidth="1"/>
-    <col min="14349" max="14349" width="11.42578125" customWidth="1"/>
-    <col min="14350" max="14350" width="13" customWidth="1"/>
-    <col min="14351" max="14351" width="14" customWidth="1"/>
-    <col min="14593" max="14593" width="14.42578125" customWidth="1"/>
-    <col min="14594" max="14594" width="27.7109375" customWidth="1"/>
-    <col min="14595" max="14595" width="18.42578125" customWidth="1"/>
-    <col min="14596" max="14596" width="34.5703125" customWidth="1"/>
-    <col min="14597" max="14597" width="25.7109375" customWidth="1"/>
-    <col min="14598" max="14598" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
-    <col min="14600" max="14600" width="28.28515625" customWidth="1"/>
-    <col min="14601" max="14601" width="27.7109375" customWidth="1"/>
-    <col min="14602" max="14602" width="27" customWidth="1"/>
-    <col min="14603" max="14603" width="34.28515625" customWidth="1"/>
-    <col min="14604" max="14604" width="13.42578125" customWidth="1"/>
-    <col min="14605" max="14605" width="11.42578125" customWidth="1"/>
-    <col min="14606" max="14606" width="13" customWidth="1"/>
-    <col min="14607" max="14607" width="14" customWidth="1"/>
-    <col min="14849" max="14849" width="14.42578125" customWidth="1"/>
-    <col min="14850" max="14850" width="27.7109375" customWidth="1"/>
-    <col min="14851" max="14851" width="18.42578125" customWidth="1"/>
-    <col min="14852" max="14852" width="34.5703125" customWidth="1"/>
-    <col min="14853" max="14853" width="25.7109375" customWidth="1"/>
-    <col min="14854" max="14854" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
-    <col min="14856" max="14856" width="28.28515625" customWidth="1"/>
-    <col min="14857" max="14857" width="27.7109375" customWidth="1"/>
-    <col min="14858" max="14858" width="27" customWidth="1"/>
-    <col min="14859" max="14859" width="34.28515625" customWidth="1"/>
-    <col min="14860" max="14860" width="13.42578125" customWidth="1"/>
-    <col min="14861" max="14861" width="11.42578125" customWidth="1"/>
-    <col min="14862" max="14862" width="13" customWidth="1"/>
-    <col min="14863" max="14863" width="14" customWidth="1"/>
-    <col min="15105" max="15105" width="14.42578125" customWidth="1"/>
-    <col min="15106" max="15106" width="27.7109375" customWidth="1"/>
-    <col min="15107" max="15107" width="18.42578125" customWidth="1"/>
-    <col min="15108" max="15108" width="34.5703125" customWidth="1"/>
-    <col min="15109" max="15109" width="25.7109375" customWidth="1"/>
-    <col min="15110" max="15110" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
-    <col min="15112" max="15112" width="28.28515625" customWidth="1"/>
-    <col min="15113" max="15113" width="27.7109375" customWidth="1"/>
-    <col min="15114" max="15114" width="27" customWidth="1"/>
-    <col min="15115" max="15115" width="34.28515625" customWidth="1"/>
-    <col min="15116" max="15116" width="13.42578125" customWidth="1"/>
-    <col min="15117" max="15117" width="11.42578125" customWidth="1"/>
-    <col min="15118" max="15118" width="13" customWidth="1"/>
-    <col min="15119" max="15119" width="14" customWidth="1"/>
-    <col min="15361" max="15361" width="14.42578125" customWidth="1"/>
-    <col min="15362" max="15362" width="27.7109375" customWidth="1"/>
-    <col min="15363" max="15363" width="18.42578125" customWidth="1"/>
-    <col min="15364" max="15364" width="34.5703125" customWidth="1"/>
-    <col min="15365" max="15365" width="25.7109375" customWidth="1"/>
-    <col min="15366" max="15366" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
-    <col min="15368" max="15368" width="28.28515625" customWidth="1"/>
-    <col min="15369" max="15369" width="27.7109375" customWidth="1"/>
-    <col min="15370" max="15370" width="27" customWidth="1"/>
-    <col min="15371" max="15371" width="34.28515625" customWidth="1"/>
-    <col min="15372" max="15372" width="13.42578125" customWidth="1"/>
-    <col min="15373" max="15373" width="11.42578125" customWidth="1"/>
-    <col min="15374" max="15374" width="13" customWidth="1"/>
-    <col min="15375" max="15375" width="14" customWidth="1"/>
-    <col min="15617" max="15617" width="14.42578125" customWidth="1"/>
-    <col min="15618" max="15618" width="27.7109375" customWidth="1"/>
-    <col min="15619" max="15619" width="18.42578125" customWidth="1"/>
-    <col min="15620" max="15620" width="34.5703125" customWidth="1"/>
-    <col min="15621" max="15621" width="25.7109375" customWidth="1"/>
-    <col min="15622" max="15622" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
-    <col min="15624" max="15624" width="28.28515625" customWidth="1"/>
-    <col min="15625" max="15625" width="27.7109375" customWidth="1"/>
-    <col min="15626" max="15626" width="27" customWidth="1"/>
-    <col min="15627" max="15627" width="34.28515625" customWidth="1"/>
-    <col min="15628" max="15628" width="13.42578125" customWidth="1"/>
-    <col min="15629" max="15629" width="11.42578125" customWidth="1"/>
-    <col min="15630" max="15630" width="13" customWidth="1"/>
-    <col min="15631" max="15631" width="14" customWidth="1"/>
-    <col min="15873" max="15873" width="14.42578125" customWidth="1"/>
-    <col min="15874" max="15874" width="27.7109375" customWidth="1"/>
-    <col min="15875" max="15875" width="18.42578125" customWidth="1"/>
-    <col min="15876" max="15876" width="34.5703125" customWidth="1"/>
-    <col min="15877" max="15877" width="25.7109375" customWidth="1"/>
-    <col min="15878" max="15878" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
-    <col min="15880" max="15880" width="28.28515625" customWidth="1"/>
-    <col min="15881" max="15881" width="27.7109375" customWidth="1"/>
-    <col min="15882" max="15882" width="27" customWidth="1"/>
-    <col min="15883" max="15883" width="34.28515625" customWidth="1"/>
-    <col min="15884" max="15884" width="13.42578125" customWidth="1"/>
-    <col min="15885" max="15885" width="11.42578125" customWidth="1"/>
-    <col min="15886" max="15886" width="13" customWidth="1"/>
-    <col min="15887" max="15887" width="14" customWidth="1"/>
-    <col min="16129" max="16129" width="14.42578125" customWidth="1"/>
-    <col min="16130" max="16130" width="27.7109375" customWidth="1"/>
-    <col min="16131" max="16131" width="18.42578125" customWidth="1"/>
-    <col min="16132" max="16132" width="34.5703125" customWidth="1"/>
-    <col min="16133" max="16133" width="25.7109375" customWidth="1"/>
-    <col min="16134" max="16134" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
-    <col min="16136" max="16136" width="28.28515625" customWidth="1"/>
-    <col min="16137" max="16137" width="27.7109375" customWidth="1"/>
-    <col min="16138" max="16138" width="27" customWidth="1"/>
-    <col min="16139" max="16139" width="34.28515625" customWidth="1"/>
-    <col min="16140" max="16140" width="13.42578125" customWidth="1"/>
-    <col min="16141" max="16141" width="11.42578125" customWidth="1"/>
-    <col min="16142" max="16142" width="13" customWidth="1"/>
-    <col min="16143" max="16143" width="14" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="13" style="61" customWidth="1"/>
+    <col min="4" max="4" width="22" style="43" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="43" customWidth="1"/>
+    <col min="10" max="10" width="27" style="43" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="43" customWidth="1"/>
+    <col min="14" max="14" width="13" style="43" customWidth="1"/>
+    <col min="15" max="15" width="14" style="43" customWidth="1"/>
+    <col min="16" max="256" width="9.140625" style="43"/>
+    <col min="257" max="257" width="14.42578125" style="43" customWidth="1"/>
+    <col min="258" max="258" width="27.7109375" style="43" customWidth="1"/>
+    <col min="259" max="259" width="18.42578125" style="43" customWidth="1"/>
+    <col min="260" max="260" width="34.5703125" style="43" customWidth="1"/>
+    <col min="261" max="261" width="25.7109375" style="43" customWidth="1"/>
+    <col min="262" max="262" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="29.7109375" style="43" customWidth="1"/>
+    <col min="264" max="264" width="28.28515625" style="43" customWidth="1"/>
+    <col min="265" max="265" width="27.7109375" style="43" customWidth="1"/>
+    <col min="266" max="266" width="27" style="43" customWidth="1"/>
+    <col min="267" max="267" width="34.28515625" style="43" customWidth="1"/>
+    <col min="268" max="268" width="13.42578125" style="43" customWidth="1"/>
+    <col min="269" max="269" width="11.42578125" style="43" customWidth="1"/>
+    <col min="270" max="270" width="13" style="43" customWidth="1"/>
+    <col min="271" max="271" width="14" style="43" customWidth="1"/>
+    <col min="272" max="512" width="9.140625" style="43"/>
+    <col min="513" max="513" width="14.42578125" style="43" customWidth="1"/>
+    <col min="514" max="514" width="27.7109375" style="43" customWidth="1"/>
+    <col min="515" max="515" width="18.42578125" style="43" customWidth="1"/>
+    <col min="516" max="516" width="34.5703125" style="43" customWidth="1"/>
+    <col min="517" max="517" width="25.7109375" style="43" customWidth="1"/>
+    <col min="518" max="518" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="29.7109375" style="43" customWidth="1"/>
+    <col min="520" max="520" width="28.28515625" style="43" customWidth="1"/>
+    <col min="521" max="521" width="27.7109375" style="43" customWidth="1"/>
+    <col min="522" max="522" width="27" style="43" customWidth="1"/>
+    <col min="523" max="523" width="34.28515625" style="43" customWidth="1"/>
+    <col min="524" max="524" width="13.42578125" style="43" customWidth="1"/>
+    <col min="525" max="525" width="11.42578125" style="43" customWidth="1"/>
+    <col min="526" max="526" width="13" style="43" customWidth="1"/>
+    <col min="527" max="527" width="14" style="43" customWidth="1"/>
+    <col min="528" max="768" width="9.140625" style="43"/>
+    <col min="769" max="769" width="14.42578125" style="43" customWidth="1"/>
+    <col min="770" max="770" width="27.7109375" style="43" customWidth="1"/>
+    <col min="771" max="771" width="18.42578125" style="43" customWidth="1"/>
+    <col min="772" max="772" width="34.5703125" style="43" customWidth="1"/>
+    <col min="773" max="773" width="25.7109375" style="43" customWidth="1"/>
+    <col min="774" max="774" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="29.7109375" style="43" customWidth="1"/>
+    <col min="776" max="776" width="28.28515625" style="43" customWidth="1"/>
+    <col min="777" max="777" width="27.7109375" style="43" customWidth="1"/>
+    <col min="778" max="778" width="27" style="43" customWidth="1"/>
+    <col min="779" max="779" width="34.28515625" style="43" customWidth="1"/>
+    <col min="780" max="780" width="13.42578125" style="43" customWidth="1"/>
+    <col min="781" max="781" width="11.42578125" style="43" customWidth="1"/>
+    <col min="782" max="782" width="13" style="43" customWidth="1"/>
+    <col min="783" max="783" width="14" style="43" customWidth="1"/>
+    <col min="784" max="1024" width="9.140625" style="43"/>
+    <col min="1025" max="1025" width="14.42578125" style="43" customWidth="1"/>
+    <col min="1026" max="1026" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1027" max="1027" width="18.42578125" style="43" customWidth="1"/>
+    <col min="1028" max="1028" width="34.5703125" style="43" customWidth="1"/>
+    <col min="1029" max="1029" width="25.7109375" style="43" customWidth="1"/>
+    <col min="1030" max="1030" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="29.7109375" style="43" customWidth="1"/>
+    <col min="1032" max="1032" width="28.28515625" style="43" customWidth="1"/>
+    <col min="1033" max="1033" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1034" max="1034" width="27" style="43" customWidth="1"/>
+    <col min="1035" max="1035" width="34.28515625" style="43" customWidth="1"/>
+    <col min="1036" max="1036" width="13.42578125" style="43" customWidth="1"/>
+    <col min="1037" max="1037" width="11.42578125" style="43" customWidth="1"/>
+    <col min="1038" max="1038" width="13" style="43" customWidth="1"/>
+    <col min="1039" max="1039" width="14" style="43" customWidth="1"/>
+    <col min="1040" max="1280" width="9.140625" style="43"/>
+    <col min="1281" max="1281" width="14.42578125" style="43" customWidth="1"/>
+    <col min="1282" max="1282" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1283" max="1283" width="18.42578125" style="43" customWidth="1"/>
+    <col min="1284" max="1284" width="34.5703125" style="43" customWidth="1"/>
+    <col min="1285" max="1285" width="25.7109375" style="43" customWidth="1"/>
+    <col min="1286" max="1286" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="29.7109375" style="43" customWidth="1"/>
+    <col min="1288" max="1288" width="28.28515625" style="43" customWidth="1"/>
+    <col min="1289" max="1289" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1290" max="1290" width="27" style="43" customWidth="1"/>
+    <col min="1291" max="1291" width="34.28515625" style="43" customWidth="1"/>
+    <col min="1292" max="1292" width="13.42578125" style="43" customWidth="1"/>
+    <col min="1293" max="1293" width="11.42578125" style="43" customWidth="1"/>
+    <col min="1294" max="1294" width="13" style="43" customWidth="1"/>
+    <col min="1295" max="1295" width="14" style="43" customWidth="1"/>
+    <col min="1296" max="1536" width="9.140625" style="43"/>
+    <col min="1537" max="1537" width="14.42578125" style="43" customWidth="1"/>
+    <col min="1538" max="1538" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1539" max="1539" width="18.42578125" style="43" customWidth="1"/>
+    <col min="1540" max="1540" width="34.5703125" style="43" customWidth="1"/>
+    <col min="1541" max="1541" width="25.7109375" style="43" customWidth="1"/>
+    <col min="1542" max="1542" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="29.7109375" style="43" customWidth="1"/>
+    <col min="1544" max="1544" width="28.28515625" style="43" customWidth="1"/>
+    <col min="1545" max="1545" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1546" max="1546" width="27" style="43" customWidth="1"/>
+    <col min="1547" max="1547" width="34.28515625" style="43" customWidth="1"/>
+    <col min="1548" max="1548" width="13.42578125" style="43" customWidth="1"/>
+    <col min="1549" max="1549" width="11.42578125" style="43" customWidth="1"/>
+    <col min="1550" max="1550" width="13" style="43" customWidth="1"/>
+    <col min="1551" max="1551" width="14" style="43" customWidth="1"/>
+    <col min="1552" max="1792" width="9.140625" style="43"/>
+    <col min="1793" max="1793" width="14.42578125" style="43" customWidth="1"/>
+    <col min="1794" max="1794" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1795" max="1795" width="18.42578125" style="43" customWidth="1"/>
+    <col min="1796" max="1796" width="34.5703125" style="43" customWidth="1"/>
+    <col min="1797" max="1797" width="25.7109375" style="43" customWidth="1"/>
+    <col min="1798" max="1798" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="29.7109375" style="43" customWidth="1"/>
+    <col min="1800" max="1800" width="28.28515625" style="43" customWidth="1"/>
+    <col min="1801" max="1801" width="27.7109375" style="43" customWidth="1"/>
+    <col min="1802" max="1802" width="27" style="43" customWidth="1"/>
+    <col min="1803" max="1803" width="34.28515625" style="43" customWidth="1"/>
+    <col min="1804" max="1804" width="13.42578125" style="43" customWidth="1"/>
+    <col min="1805" max="1805" width="11.42578125" style="43" customWidth="1"/>
+    <col min="1806" max="1806" width="13" style="43" customWidth="1"/>
+    <col min="1807" max="1807" width="14" style="43" customWidth="1"/>
+    <col min="1808" max="2048" width="9.140625" style="43"/>
+    <col min="2049" max="2049" width="14.42578125" style="43" customWidth="1"/>
+    <col min="2050" max="2050" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2051" max="2051" width="18.42578125" style="43" customWidth="1"/>
+    <col min="2052" max="2052" width="34.5703125" style="43" customWidth="1"/>
+    <col min="2053" max="2053" width="25.7109375" style="43" customWidth="1"/>
+    <col min="2054" max="2054" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="29.7109375" style="43" customWidth="1"/>
+    <col min="2056" max="2056" width="28.28515625" style="43" customWidth="1"/>
+    <col min="2057" max="2057" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2058" max="2058" width="27" style="43" customWidth="1"/>
+    <col min="2059" max="2059" width="34.28515625" style="43" customWidth="1"/>
+    <col min="2060" max="2060" width="13.42578125" style="43" customWidth="1"/>
+    <col min="2061" max="2061" width="11.42578125" style="43" customWidth="1"/>
+    <col min="2062" max="2062" width="13" style="43" customWidth="1"/>
+    <col min="2063" max="2063" width="14" style="43" customWidth="1"/>
+    <col min="2064" max="2304" width="9.140625" style="43"/>
+    <col min="2305" max="2305" width="14.42578125" style="43" customWidth="1"/>
+    <col min="2306" max="2306" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2307" max="2307" width="18.42578125" style="43" customWidth="1"/>
+    <col min="2308" max="2308" width="34.5703125" style="43" customWidth="1"/>
+    <col min="2309" max="2309" width="25.7109375" style="43" customWidth="1"/>
+    <col min="2310" max="2310" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="29.7109375" style="43" customWidth="1"/>
+    <col min="2312" max="2312" width="28.28515625" style="43" customWidth="1"/>
+    <col min="2313" max="2313" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2314" max="2314" width="27" style="43" customWidth="1"/>
+    <col min="2315" max="2315" width="34.28515625" style="43" customWidth="1"/>
+    <col min="2316" max="2316" width="13.42578125" style="43" customWidth="1"/>
+    <col min="2317" max="2317" width="11.42578125" style="43" customWidth="1"/>
+    <col min="2318" max="2318" width="13" style="43" customWidth="1"/>
+    <col min="2319" max="2319" width="14" style="43" customWidth="1"/>
+    <col min="2320" max="2560" width="9.140625" style="43"/>
+    <col min="2561" max="2561" width="14.42578125" style="43" customWidth="1"/>
+    <col min="2562" max="2562" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2563" max="2563" width="18.42578125" style="43" customWidth="1"/>
+    <col min="2564" max="2564" width="34.5703125" style="43" customWidth="1"/>
+    <col min="2565" max="2565" width="25.7109375" style="43" customWidth="1"/>
+    <col min="2566" max="2566" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="29.7109375" style="43" customWidth="1"/>
+    <col min="2568" max="2568" width="28.28515625" style="43" customWidth="1"/>
+    <col min="2569" max="2569" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2570" max="2570" width="27" style="43" customWidth="1"/>
+    <col min="2571" max="2571" width="34.28515625" style="43" customWidth="1"/>
+    <col min="2572" max="2572" width="13.42578125" style="43" customWidth="1"/>
+    <col min="2573" max="2573" width="11.42578125" style="43" customWidth="1"/>
+    <col min="2574" max="2574" width="13" style="43" customWidth="1"/>
+    <col min="2575" max="2575" width="14" style="43" customWidth="1"/>
+    <col min="2576" max="2816" width="9.140625" style="43"/>
+    <col min="2817" max="2817" width="14.42578125" style="43" customWidth="1"/>
+    <col min="2818" max="2818" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2819" max="2819" width="18.42578125" style="43" customWidth="1"/>
+    <col min="2820" max="2820" width="34.5703125" style="43" customWidth="1"/>
+    <col min="2821" max="2821" width="25.7109375" style="43" customWidth="1"/>
+    <col min="2822" max="2822" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="29.7109375" style="43" customWidth="1"/>
+    <col min="2824" max="2824" width="28.28515625" style="43" customWidth="1"/>
+    <col min="2825" max="2825" width="27.7109375" style="43" customWidth="1"/>
+    <col min="2826" max="2826" width="27" style="43" customWidth="1"/>
+    <col min="2827" max="2827" width="34.28515625" style="43" customWidth="1"/>
+    <col min="2828" max="2828" width="13.42578125" style="43" customWidth="1"/>
+    <col min="2829" max="2829" width="11.42578125" style="43" customWidth="1"/>
+    <col min="2830" max="2830" width="13" style="43" customWidth="1"/>
+    <col min="2831" max="2831" width="14" style="43" customWidth="1"/>
+    <col min="2832" max="3072" width="9.140625" style="43"/>
+    <col min="3073" max="3073" width="14.42578125" style="43" customWidth="1"/>
+    <col min="3074" max="3074" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3075" max="3075" width="18.42578125" style="43" customWidth="1"/>
+    <col min="3076" max="3076" width="34.5703125" style="43" customWidth="1"/>
+    <col min="3077" max="3077" width="25.7109375" style="43" customWidth="1"/>
+    <col min="3078" max="3078" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="29.7109375" style="43" customWidth="1"/>
+    <col min="3080" max="3080" width="28.28515625" style="43" customWidth="1"/>
+    <col min="3081" max="3081" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3082" max="3082" width="27" style="43" customWidth="1"/>
+    <col min="3083" max="3083" width="34.28515625" style="43" customWidth="1"/>
+    <col min="3084" max="3084" width="13.42578125" style="43" customWidth="1"/>
+    <col min="3085" max="3085" width="11.42578125" style="43" customWidth="1"/>
+    <col min="3086" max="3086" width="13" style="43" customWidth="1"/>
+    <col min="3087" max="3087" width="14" style="43" customWidth="1"/>
+    <col min="3088" max="3328" width="9.140625" style="43"/>
+    <col min="3329" max="3329" width="14.42578125" style="43" customWidth="1"/>
+    <col min="3330" max="3330" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3331" max="3331" width="18.42578125" style="43" customWidth="1"/>
+    <col min="3332" max="3332" width="34.5703125" style="43" customWidth="1"/>
+    <col min="3333" max="3333" width="25.7109375" style="43" customWidth="1"/>
+    <col min="3334" max="3334" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="29.7109375" style="43" customWidth="1"/>
+    <col min="3336" max="3336" width="28.28515625" style="43" customWidth="1"/>
+    <col min="3337" max="3337" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3338" max="3338" width="27" style="43" customWidth="1"/>
+    <col min="3339" max="3339" width="34.28515625" style="43" customWidth="1"/>
+    <col min="3340" max="3340" width="13.42578125" style="43" customWidth="1"/>
+    <col min="3341" max="3341" width="11.42578125" style="43" customWidth="1"/>
+    <col min="3342" max="3342" width="13" style="43" customWidth="1"/>
+    <col min="3343" max="3343" width="14" style="43" customWidth="1"/>
+    <col min="3344" max="3584" width="9.140625" style="43"/>
+    <col min="3585" max="3585" width="14.42578125" style="43" customWidth="1"/>
+    <col min="3586" max="3586" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3587" max="3587" width="18.42578125" style="43" customWidth="1"/>
+    <col min="3588" max="3588" width="34.5703125" style="43" customWidth="1"/>
+    <col min="3589" max="3589" width="25.7109375" style="43" customWidth="1"/>
+    <col min="3590" max="3590" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="29.7109375" style="43" customWidth="1"/>
+    <col min="3592" max="3592" width="28.28515625" style="43" customWidth="1"/>
+    <col min="3593" max="3593" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3594" max="3594" width="27" style="43" customWidth="1"/>
+    <col min="3595" max="3595" width="34.28515625" style="43" customWidth="1"/>
+    <col min="3596" max="3596" width="13.42578125" style="43" customWidth="1"/>
+    <col min="3597" max="3597" width="11.42578125" style="43" customWidth="1"/>
+    <col min="3598" max="3598" width="13" style="43" customWidth="1"/>
+    <col min="3599" max="3599" width="14" style="43" customWidth="1"/>
+    <col min="3600" max="3840" width="9.140625" style="43"/>
+    <col min="3841" max="3841" width="14.42578125" style="43" customWidth="1"/>
+    <col min="3842" max="3842" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3843" max="3843" width="18.42578125" style="43" customWidth="1"/>
+    <col min="3844" max="3844" width="34.5703125" style="43" customWidth="1"/>
+    <col min="3845" max="3845" width="25.7109375" style="43" customWidth="1"/>
+    <col min="3846" max="3846" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="29.7109375" style="43" customWidth="1"/>
+    <col min="3848" max="3848" width="28.28515625" style="43" customWidth="1"/>
+    <col min="3849" max="3849" width="27.7109375" style="43" customWidth="1"/>
+    <col min="3850" max="3850" width="27" style="43" customWidth="1"/>
+    <col min="3851" max="3851" width="34.28515625" style="43" customWidth="1"/>
+    <col min="3852" max="3852" width="13.42578125" style="43" customWidth="1"/>
+    <col min="3853" max="3853" width="11.42578125" style="43" customWidth="1"/>
+    <col min="3854" max="3854" width="13" style="43" customWidth="1"/>
+    <col min="3855" max="3855" width="14" style="43" customWidth="1"/>
+    <col min="3856" max="4096" width="9.140625" style="43"/>
+    <col min="4097" max="4097" width="14.42578125" style="43" customWidth="1"/>
+    <col min="4098" max="4098" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4099" max="4099" width="18.42578125" style="43" customWidth="1"/>
+    <col min="4100" max="4100" width="34.5703125" style="43" customWidth="1"/>
+    <col min="4101" max="4101" width="25.7109375" style="43" customWidth="1"/>
+    <col min="4102" max="4102" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="29.7109375" style="43" customWidth="1"/>
+    <col min="4104" max="4104" width="28.28515625" style="43" customWidth="1"/>
+    <col min="4105" max="4105" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4106" max="4106" width="27" style="43" customWidth="1"/>
+    <col min="4107" max="4107" width="34.28515625" style="43" customWidth="1"/>
+    <col min="4108" max="4108" width="13.42578125" style="43" customWidth="1"/>
+    <col min="4109" max="4109" width="11.42578125" style="43" customWidth="1"/>
+    <col min="4110" max="4110" width="13" style="43" customWidth="1"/>
+    <col min="4111" max="4111" width="14" style="43" customWidth="1"/>
+    <col min="4112" max="4352" width="9.140625" style="43"/>
+    <col min="4353" max="4353" width="14.42578125" style="43" customWidth="1"/>
+    <col min="4354" max="4354" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4355" max="4355" width="18.42578125" style="43" customWidth="1"/>
+    <col min="4356" max="4356" width="34.5703125" style="43" customWidth="1"/>
+    <col min="4357" max="4357" width="25.7109375" style="43" customWidth="1"/>
+    <col min="4358" max="4358" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="29.7109375" style="43" customWidth="1"/>
+    <col min="4360" max="4360" width="28.28515625" style="43" customWidth="1"/>
+    <col min="4361" max="4361" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4362" max="4362" width="27" style="43" customWidth="1"/>
+    <col min="4363" max="4363" width="34.28515625" style="43" customWidth="1"/>
+    <col min="4364" max="4364" width="13.42578125" style="43" customWidth="1"/>
+    <col min="4365" max="4365" width="11.42578125" style="43" customWidth="1"/>
+    <col min="4366" max="4366" width="13" style="43" customWidth="1"/>
+    <col min="4367" max="4367" width="14" style="43" customWidth="1"/>
+    <col min="4368" max="4608" width="9.140625" style="43"/>
+    <col min="4609" max="4609" width="14.42578125" style="43" customWidth="1"/>
+    <col min="4610" max="4610" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4611" max="4611" width="18.42578125" style="43" customWidth="1"/>
+    <col min="4612" max="4612" width="34.5703125" style="43" customWidth="1"/>
+    <col min="4613" max="4613" width="25.7109375" style="43" customWidth="1"/>
+    <col min="4614" max="4614" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="29.7109375" style="43" customWidth="1"/>
+    <col min="4616" max="4616" width="28.28515625" style="43" customWidth="1"/>
+    <col min="4617" max="4617" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4618" max="4618" width="27" style="43" customWidth="1"/>
+    <col min="4619" max="4619" width="34.28515625" style="43" customWidth="1"/>
+    <col min="4620" max="4620" width="13.42578125" style="43" customWidth="1"/>
+    <col min="4621" max="4621" width="11.42578125" style="43" customWidth="1"/>
+    <col min="4622" max="4622" width="13" style="43" customWidth="1"/>
+    <col min="4623" max="4623" width="14" style="43" customWidth="1"/>
+    <col min="4624" max="4864" width="9.140625" style="43"/>
+    <col min="4865" max="4865" width="14.42578125" style="43" customWidth="1"/>
+    <col min="4866" max="4866" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4867" max="4867" width="18.42578125" style="43" customWidth="1"/>
+    <col min="4868" max="4868" width="34.5703125" style="43" customWidth="1"/>
+    <col min="4869" max="4869" width="25.7109375" style="43" customWidth="1"/>
+    <col min="4870" max="4870" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="29.7109375" style="43" customWidth="1"/>
+    <col min="4872" max="4872" width="28.28515625" style="43" customWidth="1"/>
+    <col min="4873" max="4873" width="27.7109375" style="43" customWidth="1"/>
+    <col min="4874" max="4874" width="27" style="43" customWidth="1"/>
+    <col min="4875" max="4875" width="34.28515625" style="43" customWidth="1"/>
+    <col min="4876" max="4876" width="13.42578125" style="43" customWidth="1"/>
+    <col min="4877" max="4877" width="11.42578125" style="43" customWidth="1"/>
+    <col min="4878" max="4878" width="13" style="43" customWidth="1"/>
+    <col min="4879" max="4879" width="14" style="43" customWidth="1"/>
+    <col min="4880" max="5120" width="9.140625" style="43"/>
+    <col min="5121" max="5121" width="14.42578125" style="43" customWidth="1"/>
+    <col min="5122" max="5122" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5123" max="5123" width="18.42578125" style="43" customWidth="1"/>
+    <col min="5124" max="5124" width="34.5703125" style="43" customWidth="1"/>
+    <col min="5125" max="5125" width="25.7109375" style="43" customWidth="1"/>
+    <col min="5126" max="5126" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="29.7109375" style="43" customWidth="1"/>
+    <col min="5128" max="5128" width="28.28515625" style="43" customWidth="1"/>
+    <col min="5129" max="5129" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5130" max="5130" width="27" style="43" customWidth="1"/>
+    <col min="5131" max="5131" width="34.28515625" style="43" customWidth="1"/>
+    <col min="5132" max="5132" width="13.42578125" style="43" customWidth="1"/>
+    <col min="5133" max="5133" width="11.42578125" style="43" customWidth="1"/>
+    <col min="5134" max="5134" width="13" style="43" customWidth="1"/>
+    <col min="5135" max="5135" width="14" style="43" customWidth="1"/>
+    <col min="5136" max="5376" width="9.140625" style="43"/>
+    <col min="5377" max="5377" width="14.42578125" style="43" customWidth="1"/>
+    <col min="5378" max="5378" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5379" max="5379" width="18.42578125" style="43" customWidth="1"/>
+    <col min="5380" max="5380" width="34.5703125" style="43" customWidth="1"/>
+    <col min="5381" max="5381" width="25.7109375" style="43" customWidth="1"/>
+    <col min="5382" max="5382" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="29.7109375" style="43" customWidth="1"/>
+    <col min="5384" max="5384" width="28.28515625" style="43" customWidth="1"/>
+    <col min="5385" max="5385" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5386" max="5386" width="27" style="43" customWidth="1"/>
+    <col min="5387" max="5387" width="34.28515625" style="43" customWidth="1"/>
+    <col min="5388" max="5388" width="13.42578125" style="43" customWidth="1"/>
+    <col min="5389" max="5389" width="11.42578125" style="43" customWidth="1"/>
+    <col min="5390" max="5390" width="13" style="43" customWidth="1"/>
+    <col min="5391" max="5391" width="14" style="43" customWidth="1"/>
+    <col min="5392" max="5632" width="9.140625" style="43"/>
+    <col min="5633" max="5633" width="14.42578125" style="43" customWidth="1"/>
+    <col min="5634" max="5634" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5635" max="5635" width="18.42578125" style="43" customWidth="1"/>
+    <col min="5636" max="5636" width="34.5703125" style="43" customWidth="1"/>
+    <col min="5637" max="5637" width="25.7109375" style="43" customWidth="1"/>
+    <col min="5638" max="5638" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="29.7109375" style="43" customWidth="1"/>
+    <col min="5640" max="5640" width="28.28515625" style="43" customWidth="1"/>
+    <col min="5641" max="5641" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5642" max="5642" width="27" style="43" customWidth="1"/>
+    <col min="5643" max="5643" width="34.28515625" style="43" customWidth="1"/>
+    <col min="5644" max="5644" width="13.42578125" style="43" customWidth="1"/>
+    <col min="5645" max="5645" width="11.42578125" style="43" customWidth="1"/>
+    <col min="5646" max="5646" width="13" style="43" customWidth="1"/>
+    <col min="5647" max="5647" width="14" style="43" customWidth="1"/>
+    <col min="5648" max="5888" width="9.140625" style="43"/>
+    <col min="5889" max="5889" width="14.42578125" style="43" customWidth="1"/>
+    <col min="5890" max="5890" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5891" max="5891" width="18.42578125" style="43" customWidth="1"/>
+    <col min="5892" max="5892" width="34.5703125" style="43" customWidth="1"/>
+    <col min="5893" max="5893" width="25.7109375" style="43" customWidth="1"/>
+    <col min="5894" max="5894" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="29.7109375" style="43" customWidth="1"/>
+    <col min="5896" max="5896" width="28.28515625" style="43" customWidth="1"/>
+    <col min="5897" max="5897" width="27.7109375" style="43" customWidth="1"/>
+    <col min="5898" max="5898" width="27" style="43" customWidth="1"/>
+    <col min="5899" max="5899" width="34.28515625" style="43" customWidth="1"/>
+    <col min="5900" max="5900" width="13.42578125" style="43" customWidth="1"/>
+    <col min="5901" max="5901" width="11.42578125" style="43" customWidth="1"/>
+    <col min="5902" max="5902" width="13" style="43" customWidth="1"/>
+    <col min="5903" max="5903" width="14" style="43" customWidth="1"/>
+    <col min="5904" max="6144" width="9.140625" style="43"/>
+    <col min="6145" max="6145" width="14.42578125" style="43" customWidth="1"/>
+    <col min="6146" max="6146" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6147" max="6147" width="18.42578125" style="43" customWidth="1"/>
+    <col min="6148" max="6148" width="34.5703125" style="43" customWidth="1"/>
+    <col min="6149" max="6149" width="25.7109375" style="43" customWidth="1"/>
+    <col min="6150" max="6150" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="29.7109375" style="43" customWidth="1"/>
+    <col min="6152" max="6152" width="28.28515625" style="43" customWidth="1"/>
+    <col min="6153" max="6153" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6154" max="6154" width="27" style="43" customWidth="1"/>
+    <col min="6155" max="6155" width="34.28515625" style="43" customWidth="1"/>
+    <col min="6156" max="6156" width="13.42578125" style="43" customWidth="1"/>
+    <col min="6157" max="6157" width="11.42578125" style="43" customWidth="1"/>
+    <col min="6158" max="6158" width="13" style="43" customWidth="1"/>
+    <col min="6159" max="6159" width="14" style="43" customWidth="1"/>
+    <col min="6160" max="6400" width="9.140625" style="43"/>
+    <col min="6401" max="6401" width="14.42578125" style="43" customWidth="1"/>
+    <col min="6402" max="6402" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6403" max="6403" width="18.42578125" style="43" customWidth="1"/>
+    <col min="6404" max="6404" width="34.5703125" style="43" customWidth="1"/>
+    <col min="6405" max="6405" width="25.7109375" style="43" customWidth="1"/>
+    <col min="6406" max="6406" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="29.7109375" style="43" customWidth="1"/>
+    <col min="6408" max="6408" width="28.28515625" style="43" customWidth="1"/>
+    <col min="6409" max="6409" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6410" max="6410" width="27" style="43" customWidth="1"/>
+    <col min="6411" max="6411" width="34.28515625" style="43" customWidth="1"/>
+    <col min="6412" max="6412" width="13.42578125" style="43" customWidth="1"/>
+    <col min="6413" max="6413" width="11.42578125" style="43" customWidth="1"/>
+    <col min="6414" max="6414" width="13" style="43" customWidth="1"/>
+    <col min="6415" max="6415" width="14" style="43" customWidth="1"/>
+    <col min="6416" max="6656" width="9.140625" style="43"/>
+    <col min="6657" max="6657" width="14.42578125" style="43" customWidth="1"/>
+    <col min="6658" max="6658" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6659" max="6659" width="18.42578125" style="43" customWidth="1"/>
+    <col min="6660" max="6660" width="34.5703125" style="43" customWidth="1"/>
+    <col min="6661" max="6661" width="25.7109375" style="43" customWidth="1"/>
+    <col min="6662" max="6662" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="29.7109375" style="43" customWidth="1"/>
+    <col min="6664" max="6664" width="28.28515625" style="43" customWidth="1"/>
+    <col min="6665" max="6665" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6666" max="6666" width="27" style="43" customWidth="1"/>
+    <col min="6667" max="6667" width="34.28515625" style="43" customWidth="1"/>
+    <col min="6668" max="6668" width="13.42578125" style="43" customWidth="1"/>
+    <col min="6669" max="6669" width="11.42578125" style="43" customWidth="1"/>
+    <col min="6670" max="6670" width="13" style="43" customWidth="1"/>
+    <col min="6671" max="6671" width="14" style="43" customWidth="1"/>
+    <col min="6672" max="6912" width="9.140625" style="43"/>
+    <col min="6913" max="6913" width="14.42578125" style="43" customWidth="1"/>
+    <col min="6914" max="6914" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6915" max="6915" width="18.42578125" style="43" customWidth="1"/>
+    <col min="6916" max="6916" width="34.5703125" style="43" customWidth="1"/>
+    <col min="6917" max="6917" width="25.7109375" style="43" customWidth="1"/>
+    <col min="6918" max="6918" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="29.7109375" style="43" customWidth="1"/>
+    <col min="6920" max="6920" width="28.28515625" style="43" customWidth="1"/>
+    <col min="6921" max="6921" width="27.7109375" style="43" customWidth="1"/>
+    <col min="6922" max="6922" width="27" style="43" customWidth="1"/>
+    <col min="6923" max="6923" width="34.28515625" style="43" customWidth="1"/>
+    <col min="6924" max="6924" width="13.42578125" style="43" customWidth="1"/>
+    <col min="6925" max="6925" width="11.42578125" style="43" customWidth="1"/>
+    <col min="6926" max="6926" width="13" style="43" customWidth="1"/>
+    <col min="6927" max="6927" width="14" style="43" customWidth="1"/>
+    <col min="6928" max="7168" width="9.140625" style="43"/>
+    <col min="7169" max="7169" width="14.42578125" style="43" customWidth="1"/>
+    <col min="7170" max="7170" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7171" max="7171" width="18.42578125" style="43" customWidth="1"/>
+    <col min="7172" max="7172" width="34.5703125" style="43" customWidth="1"/>
+    <col min="7173" max="7173" width="25.7109375" style="43" customWidth="1"/>
+    <col min="7174" max="7174" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="29.7109375" style="43" customWidth="1"/>
+    <col min="7176" max="7176" width="28.28515625" style="43" customWidth="1"/>
+    <col min="7177" max="7177" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7178" max="7178" width="27" style="43" customWidth="1"/>
+    <col min="7179" max="7179" width="34.28515625" style="43" customWidth="1"/>
+    <col min="7180" max="7180" width="13.42578125" style="43" customWidth="1"/>
+    <col min="7181" max="7181" width="11.42578125" style="43" customWidth="1"/>
+    <col min="7182" max="7182" width="13" style="43" customWidth="1"/>
+    <col min="7183" max="7183" width="14" style="43" customWidth="1"/>
+    <col min="7184" max="7424" width="9.140625" style="43"/>
+    <col min="7425" max="7425" width="14.42578125" style="43" customWidth="1"/>
+    <col min="7426" max="7426" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7427" max="7427" width="18.42578125" style="43" customWidth="1"/>
+    <col min="7428" max="7428" width="34.5703125" style="43" customWidth="1"/>
+    <col min="7429" max="7429" width="25.7109375" style="43" customWidth="1"/>
+    <col min="7430" max="7430" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="29.7109375" style="43" customWidth="1"/>
+    <col min="7432" max="7432" width="28.28515625" style="43" customWidth="1"/>
+    <col min="7433" max="7433" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7434" max="7434" width="27" style="43" customWidth="1"/>
+    <col min="7435" max="7435" width="34.28515625" style="43" customWidth="1"/>
+    <col min="7436" max="7436" width="13.42578125" style="43" customWidth="1"/>
+    <col min="7437" max="7437" width="11.42578125" style="43" customWidth="1"/>
+    <col min="7438" max="7438" width="13" style="43" customWidth="1"/>
+    <col min="7439" max="7439" width="14" style="43" customWidth="1"/>
+    <col min="7440" max="7680" width="9.140625" style="43"/>
+    <col min="7681" max="7681" width="14.42578125" style="43" customWidth="1"/>
+    <col min="7682" max="7682" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7683" max="7683" width="18.42578125" style="43" customWidth="1"/>
+    <col min="7684" max="7684" width="34.5703125" style="43" customWidth="1"/>
+    <col min="7685" max="7685" width="25.7109375" style="43" customWidth="1"/>
+    <col min="7686" max="7686" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="29.7109375" style="43" customWidth="1"/>
+    <col min="7688" max="7688" width="28.28515625" style="43" customWidth="1"/>
+    <col min="7689" max="7689" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7690" max="7690" width="27" style="43" customWidth="1"/>
+    <col min="7691" max="7691" width="34.28515625" style="43" customWidth="1"/>
+    <col min="7692" max="7692" width="13.42578125" style="43" customWidth="1"/>
+    <col min="7693" max="7693" width="11.42578125" style="43" customWidth="1"/>
+    <col min="7694" max="7694" width="13" style="43" customWidth="1"/>
+    <col min="7695" max="7695" width="14" style="43" customWidth="1"/>
+    <col min="7696" max="7936" width="9.140625" style="43"/>
+    <col min="7937" max="7937" width="14.42578125" style="43" customWidth="1"/>
+    <col min="7938" max="7938" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7939" max="7939" width="18.42578125" style="43" customWidth="1"/>
+    <col min="7940" max="7940" width="34.5703125" style="43" customWidth="1"/>
+    <col min="7941" max="7941" width="25.7109375" style="43" customWidth="1"/>
+    <col min="7942" max="7942" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="29.7109375" style="43" customWidth="1"/>
+    <col min="7944" max="7944" width="28.28515625" style="43" customWidth="1"/>
+    <col min="7945" max="7945" width="27.7109375" style="43" customWidth="1"/>
+    <col min="7946" max="7946" width="27" style="43" customWidth="1"/>
+    <col min="7947" max="7947" width="34.28515625" style="43" customWidth="1"/>
+    <col min="7948" max="7948" width="13.42578125" style="43" customWidth="1"/>
+    <col min="7949" max="7949" width="11.42578125" style="43" customWidth="1"/>
+    <col min="7950" max="7950" width="13" style="43" customWidth="1"/>
+    <col min="7951" max="7951" width="14" style="43" customWidth="1"/>
+    <col min="7952" max="8192" width="9.140625" style="43"/>
+    <col min="8193" max="8193" width="14.42578125" style="43" customWidth="1"/>
+    <col min="8194" max="8194" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8195" max="8195" width="18.42578125" style="43" customWidth="1"/>
+    <col min="8196" max="8196" width="34.5703125" style="43" customWidth="1"/>
+    <col min="8197" max="8197" width="25.7109375" style="43" customWidth="1"/>
+    <col min="8198" max="8198" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="29.7109375" style="43" customWidth="1"/>
+    <col min="8200" max="8200" width="28.28515625" style="43" customWidth="1"/>
+    <col min="8201" max="8201" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8202" max="8202" width="27" style="43" customWidth="1"/>
+    <col min="8203" max="8203" width="34.28515625" style="43" customWidth="1"/>
+    <col min="8204" max="8204" width="13.42578125" style="43" customWidth="1"/>
+    <col min="8205" max="8205" width="11.42578125" style="43" customWidth="1"/>
+    <col min="8206" max="8206" width="13" style="43" customWidth="1"/>
+    <col min="8207" max="8207" width="14" style="43" customWidth="1"/>
+    <col min="8208" max="8448" width="9.140625" style="43"/>
+    <col min="8449" max="8449" width="14.42578125" style="43" customWidth="1"/>
+    <col min="8450" max="8450" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8451" max="8451" width="18.42578125" style="43" customWidth="1"/>
+    <col min="8452" max="8452" width="34.5703125" style="43" customWidth="1"/>
+    <col min="8453" max="8453" width="25.7109375" style="43" customWidth="1"/>
+    <col min="8454" max="8454" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="29.7109375" style="43" customWidth="1"/>
+    <col min="8456" max="8456" width="28.28515625" style="43" customWidth="1"/>
+    <col min="8457" max="8457" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8458" max="8458" width="27" style="43" customWidth="1"/>
+    <col min="8459" max="8459" width="34.28515625" style="43" customWidth="1"/>
+    <col min="8460" max="8460" width="13.42578125" style="43" customWidth="1"/>
+    <col min="8461" max="8461" width="11.42578125" style="43" customWidth="1"/>
+    <col min="8462" max="8462" width="13" style="43" customWidth="1"/>
+    <col min="8463" max="8463" width="14" style="43" customWidth="1"/>
+    <col min="8464" max="8704" width="9.140625" style="43"/>
+    <col min="8705" max="8705" width="14.42578125" style="43" customWidth="1"/>
+    <col min="8706" max="8706" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8707" max="8707" width="18.42578125" style="43" customWidth="1"/>
+    <col min="8708" max="8708" width="34.5703125" style="43" customWidth="1"/>
+    <col min="8709" max="8709" width="25.7109375" style="43" customWidth="1"/>
+    <col min="8710" max="8710" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="29.7109375" style="43" customWidth="1"/>
+    <col min="8712" max="8712" width="28.28515625" style="43" customWidth="1"/>
+    <col min="8713" max="8713" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8714" max="8714" width="27" style="43" customWidth="1"/>
+    <col min="8715" max="8715" width="34.28515625" style="43" customWidth="1"/>
+    <col min="8716" max="8716" width="13.42578125" style="43" customWidth="1"/>
+    <col min="8717" max="8717" width="11.42578125" style="43" customWidth="1"/>
+    <col min="8718" max="8718" width="13" style="43" customWidth="1"/>
+    <col min="8719" max="8719" width="14" style="43" customWidth="1"/>
+    <col min="8720" max="8960" width="9.140625" style="43"/>
+    <col min="8961" max="8961" width="14.42578125" style="43" customWidth="1"/>
+    <col min="8962" max="8962" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8963" max="8963" width="18.42578125" style="43" customWidth="1"/>
+    <col min="8964" max="8964" width="34.5703125" style="43" customWidth="1"/>
+    <col min="8965" max="8965" width="25.7109375" style="43" customWidth="1"/>
+    <col min="8966" max="8966" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="29.7109375" style="43" customWidth="1"/>
+    <col min="8968" max="8968" width="28.28515625" style="43" customWidth="1"/>
+    <col min="8969" max="8969" width="27.7109375" style="43" customWidth="1"/>
+    <col min="8970" max="8970" width="27" style="43" customWidth="1"/>
+    <col min="8971" max="8971" width="34.28515625" style="43" customWidth="1"/>
+    <col min="8972" max="8972" width="13.42578125" style="43" customWidth="1"/>
+    <col min="8973" max="8973" width="11.42578125" style="43" customWidth="1"/>
+    <col min="8974" max="8974" width="13" style="43" customWidth="1"/>
+    <col min="8975" max="8975" width="14" style="43" customWidth="1"/>
+    <col min="8976" max="9216" width="9.140625" style="43"/>
+    <col min="9217" max="9217" width="14.42578125" style="43" customWidth="1"/>
+    <col min="9218" max="9218" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9219" max="9219" width="18.42578125" style="43" customWidth="1"/>
+    <col min="9220" max="9220" width="34.5703125" style="43" customWidth="1"/>
+    <col min="9221" max="9221" width="25.7109375" style="43" customWidth="1"/>
+    <col min="9222" max="9222" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="29.7109375" style="43" customWidth="1"/>
+    <col min="9224" max="9224" width="28.28515625" style="43" customWidth="1"/>
+    <col min="9225" max="9225" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9226" max="9226" width="27" style="43" customWidth="1"/>
+    <col min="9227" max="9227" width="34.28515625" style="43" customWidth="1"/>
+    <col min="9228" max="9228" width="13.42578125" style="43" customWidth="1"/>
+    <col min="9229" max="9229" width="11.42578125" style="43" customWidth="1"/>
+    <col min="9230" max="9230" width="13" style="43" customWidth="1"/>
+    <col min="9231" max="9231" width="14" style="43" customWidth="1"/>
+    <col min="9232" max="9472" width="9.140625" style="43"/>
+    <col min="9473" max="9473" width="14.42578125" style="43" customWidth="1"/>
+    <col min="9474" max="9474" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9475" max="9475" width="18.42578125" style="43" customWidth="1"/>
+    <col min="9476" max="9476" width="34.5703125" style="43" customWidth="1"/>
+    <col min="9477" max="9477" width="25.7109375" style="43" customWidth="1"/>
+    <col min="9478" max="9478" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="29.7109375" style="43" customWidth="1"/>
+    <col min="9480" max="9480" width="28.28515625" style="43" customWidth="1"/>
+    <col min="9481" max="9481" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9482" max="9482" width="27" style="43" customWidth="1"/>
+    <col min="9483" max="9483" width="34.28515625" style="43" customWidth="1"/>
+    <col min="9484" max="9484" width="13.42578125" style="43" customWidth="1"/>
+    <col min="9485" max="9485" width="11.42578125" style="43" customWidth="1"/>
+    <col min="9486" max="9486" width="13" style="43" customWidth="1"/>
+    <col min="9487" max="9487" width="14" style="43" customWidth="1"/>
+    <col min="9488" max="9728" width="9.140625" style="43"/>
+    <col min="9729" max="9729" width="14.42578125" style="43" customWidth="1"/>
+    <col min="9730" max="9730" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9731" max="9731" width="18.42578125" style="43" customWidth="1"/>
+    <col min="9732" max="9732" width="34.5703125" style="43" customWidth="1"/>
+    <col min="9733" max="9733" width="25.7109375" style="43" customWidth="1"/>
+    <col min="9734" max="9734" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="29.7109375" style="43" customWidth="1"/>
+    <col min="9736" max="9736" width="28.28515625" style="43" customWidth="1"/>
+    <col min="9737" max="9737" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9738" max="9738" width="27" style="43" customWidth="1"/>
+    <col min="9739" max="9739" width="34.28515625" style="43" customWidth="1"/>
+    <col min="9740" max="9740" width="13.42578125" style="43" customWidth="1"/>
+    <col min="9741" max="9741" width="11.42578125" style="43" customWidth="1"/>
+    <col min="9742" max="9742" width="13" style="43" customWidth="1"/>
+    <col min="9743" max="9743" width="14" style="43" customWidth="1"/>
+    <col min="9744" max="9984" width="9.140625" style="43"/>
+    <col min="9985" max="9985" width="14.42578125" style="43" customWidth="1"/>
+    <col min="9986" max="9986" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9987" max="9987" width="18.42578125" style="43" customWidth="1"/>
+    <col min="9988" max="9988" width="34.5703125" style="43" customWidth="1"/>
+    <col min="9989" max="9989" width="25.7109375" style="43" customWidth="1"/>
+    <col min="9990" max="9990" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="29.7109375" style="43" customWidth="1"/>
+    <col min="9992" max="9992" width="28.28515625" style="43" customWidth="1"/>
+    <col min="9993" max="9993" width="27.7109375" style="43" customWidth="1"/>
+    <col min="9994" max="9994" width="27" style="43" customWidth="1"/>
+    <col min="9995" max="9995" width="34.28515625" style="43" customWidth="1"/>
+    <col min="9996" max="9996" width="13.42578125" style="43" customWidth="1"/>
+    <col min="9997" max="9997" width="11.42578125" style="43" customWidth="1"/>
+    <col min="9998" max="9998" width="13" style="43" customWidth="1"/>
+    <col min="9999" max="9999" width="14" style="43" customWidth="1"/>
+    <col min="10000" max="10240" width="9.140625" style="43"/>
+    <col min="10241" max="10241" width="14.42578125" style="43" customWidth="1"/>
+    <col min="10242" max="10242" width="27.7109375" style="43" customWidth="1"/>
+    <col min="10243" max="10243" width="18.42578125" style="43" customWidth="1"/>
+    <col min="10244" max="10244" width="34.5703125" style="43" customWidth="1"/>
+    <col min="10245" max="10245" width="25.7109375" style="43" customWidth="1"/>
+    <col min="10246" max="10246" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="29.7109375" style="43" customWidth="1"/>
+    <col min="10248" max="10248" width="28.28515625" style="43" customWidth="1"/>
+    <col min="10249" max="10249" width="27.7109375" style="43" customWidth="1"/>
+    <col min="10250" max="10250" width="27" style="43" customWidth="1"/>
+    <col min="10251" max="10251" width="34.28515625" style="43" customWidth="1"/>
+    <col min="10252" max="10252" width="13.42578125" style="43" customWidth="1"/>
+    <col min="10253" max="10253" width="11.42578125" style="43" customWidth="1"/>
+    <col min="10254" max="10254" width="13" style="43" customWidth="1"/>
+    <col min="10255" max="10255" width="14" style="43" customWidth="1"/>
+    <col min="10256" max="10496" width="9.140625" style="43"/>
+    <col min="10497" max="10497" width="14.42578125" style="43" customWidth="1"/>
+    <col min="10498" max="10498" width="27.7109375" style="43" customWidth="1"/>
+    <col min="10499" max="10499" width="18.42578125" style="43" customWidth="1"/>
+    <col min="10500" max="10500" width="34.5703125" style="43" customWidth="1"/>
+    <col min="10501" max="10501" width="25.7109375" style="43" customWidth="1"/>
+    <col min="10502" max="10502" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="29.7109375" style="43" customWidth="1"/>
+    <col min="10504" max="10504" width="28.28515625" style="43" customWidth="1"/>
+    <col min="10505" max="10505" width="27.7109375" style="43" customWidth="1"/>
+    <col min="10506" max="10506" width="27" style="43" customWidth="1"/>
+    <col min="10507" max="10507" width="34.28515625" style="43" customWidth="1"/>
+    <col min="10508" max="10508" width="13.42578125" style="43" customWidth="1"/>
+    <col min="10509" max="10509" width="11.42578125" style="43" customWidth="1"/>
+    <col min="10510" max="10510" width="13" style="43" customWidth="1"/>
+    <col min="10511" max="10511" width="14" style="43" customWidth="1"/>
+    <col min="10512" max="10752" width="9.140625" style="43"/>
+    <col min="10753" max="10753" width="14.42578125" style="43" customWidth="1"/>
+    <col min="10754" max="10754" width="27.7109375" style="43" customWidth="1"/>
+    <col min="10755" max="10755" width="18.42578125" style="43" customWidth="1"/>
+    <col min="10756" max="10756" width="34.5703125" style="43" customWidth="1"/>
+    <col min="10757" max="10757" width="25.7109375" style="43" customWidth="1"/>
+    <col min="10758" max="10758" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="29.7109375" style="43" customWidth="1"/>
+    <col min="10760" max="10760" width="28.28515625" style="43" customWidth="1"/>
+    <col min="10761" max="10761" width="27.7109375" style="43" customWidth="1"/>
+    <col min="10762" max="10762" width="27" style="43" customWidth="1"/>
+    <col min="10763" max="10763" width="34.28515625" style="43" customWidth="1"/>
+    <col min="10764" max="10764" width="13.42578125" style="43" customWidth="1"/>
+    <col min="10765" max="10765" width="11.42578125" style="43" customWidth="1"/>
+    <col min="10766" max="10766" width="13" style="43" customWidth="1"/>
+    <col min="10767" max="10767" width="14" style="43" customWidth="1"/>
+    <col min="10768" max="11008" width="9.140625" style="43"/>
+    <col min="11009" max="11009" width="14.42578125" style="43" customWidth="1"/>
+    <col min="11010" max="11010" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11011" max="11011" width="18.42578125" style="43" customWidth="1"/>
+    <col min="11012" max="11012" width="34.5703125" style="43" customWidth="1"/>
+    <col min="11013" max="11013" width="25.7109375" style="43" customWidth="1"/>
+    <col min="11014" max="11014" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="29.7109375" style="43" customWidth="1"/>
+    <col min="11016" max="11016" width="28.28515625" style="43" customWidth="1"/>
+    <col min="11017" max="11017" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11018" max="11018" width="27" style="43" customWidth="1"/>
+    <col min="11019" max="11019" width="34.28515625" style="43" customWidth="1"/>
+    <col min="11020" max="11020" width="13.42578125" style="43" customWidth="1"/>
+    <col min="11021" max="11021" width="11.42578125" style="43" customWidth="1"/>
+    <col min="11022" max="11022" width="13" style="43" customWidth="1"/>
+    <col min="11023" max="11023" width="14" style="43" customWidth="1"/>
+    <col min="11024" max="11264" width="9.140625" style="43"/>
+    <col min="11265" max="11265" width="14.42578125" style="43" customWidth="1"/>
+    <col min="11266" max="11266" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11267" max="11267" width="18.42578125" style="43" customWidth="1"/>
+    <col min="11268" max="11268" width="34.5703125" style="43" customWidth="1"/>
+    <col min="11269" max="11269" width="25.7109375" style="43" customWidth="1"/>
+    <col min="11270" max="11270" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="29.7109375" style="43" customWidth="1"/>
+    <col min="11272" max="11272" width="28.28515625" style="43" customWidth="1"/>
+    <col min="11273" max="11273" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11274" max="11274" width="27" style="43" customWidth="1"/>
+    <col min="11275" max="11275" width="34.28515625" style="43" customWidth="1"/>
+    <col min="11276" max="11276" width="13.42578125" style="43" customWidth="1"/>
+    <col min="11277" max="11277" width="11.42578125" style="43" customWidth="1"/>
+    <col min="11278" max="11278" width="13" style="43" customWidth="1"/>
+    <col min="11279" max="11279" width="14" style="43" customWidth="1"/>
+    <col min="11280" max="11520" width="9.140625" style="43"/>
+    <col min="11521" max="11521" width="14.42578125" style="43" customWidth="1"/>
+    <col min="11522" max="11522" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11523" max="11523" width="18.42578125" style="43" customWidth="1"/>
+    <col min="11524" max="11524" width="34.5703125" style="43" customWidth="1"/>
+    <col min="11525" max="11525" width="25.7109375" style="43" customWidth="1"/>
+    <col min="11526" max="11526" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="29.7109375" style="43" customWidth="1"/>
+    <col min="11528" max="11528" width="28.28515625" style="43" customWidth="1"/>
+    <col min="11529" max="11529" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11530" max="11530" width="27" style="43" customWidth="1"/>
+    <col min="11531" max="11531" width="34.28515625" style="43" customWidth="1"/>
+    <col min="11532" max="11532" width="13.42578125" style="43" customWidth="1"/>
+    <col min="11533" max="11533" width="11.42578125" style="43" customWidth="1"/>
+    <col min="11534" max="11534" width="13" style="43" customWidth="1"/>
+    <col min="11535" max="11535" width="14" style="43" customWidth="1"/>
+    <col min="11536" max="11776" width="9.140625" style="43"/>
+    <col min="11777" max="11777" width="14.42578125" style="43" customWidth="1"/>
+    <col min="11778" max="11778" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11779" max="11779" width="18.42578125" style="43" customWidth="1"/>
+    <col min="11780" max="11780" width="34.5703125" style="43" customWidth="1"/>
+    <col min="11781" max="11781" width="25.7109375" style="43" customWidth="1"/>
+    <col min="11782" max="11782" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="29.7109375" style="43" customWidth="1"/>
+    <col min="11784" max="11784" width="28.28515625" style="43" customWidth="1"/>
+    <col min="11785" max="11785" width="27.7109375" style="43" customWidth="1"/>
+    <col min="11786" max="11786" width="27" style="43" customWidth="1"/>
+    <col min="11787" max="11787" width="34.28515625" style="43" customWidth="1"/>
+    <col min="11788" max="11788" width="13.42578125" style="43" customWidth="1"/>
+    <col min="11789" max="11789" width="11.42578125" style="43" customWidth="1"/>
+    <col min="11790" max="11790" width="13" style="43" customWidth="1"/>
+    <col min="11791" max="11791" width="14" style="43" customWidth="1"/>
+    <col min="11792" max="12032" width="9.140625" style="43"/>
+    <col min="12033" max="12033" width="14.42578125" style="43" customWidth="1"/>
+    <col min="12034" max="12034" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12035" max="12035" width="18.42578125" style="43" customWidth="1"/>
+    <col min="12036" max="12036" width="34.5703125" style="43" customWidth="1"/>
+    <col min="12037" max="12037" width="25.7109375" style="43" customWidth="1"/>
+    <col min="12038" max="12038" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="29.7109375" style="43" customWidth="1"/>
+    <col min="12040" max="12040" width="28.28515625" style="43" customWidth="1"/>
+    <col min="12041" max="12041" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12042" max="12042" width="27" style="43" customWidth="1"/>
+    <col min="12043" max="12043" width="34.28515625" style="43" customWidth="1"/>
+    <col min="12044" max="12044" width="13.42578125" style="43" customWidth="1"/>
+    <col min="12045" max="12045" width="11.42578125" style="43" customWidth="1"/>
+    <col min="12046" max="12046" width="13" style="43" customWidth="1"/>
+    <col min="12047" max="12047" width="14" style="43" customWidth="1"/>
+    <col min="12048" max="12288" width="9.140625" style="43"/>
+    <col min="12289" max="12289" width="14.42578125" style="43" customWidth="1"/>
+    <col min="12290" max="12290" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12291" max="12291" width="18.42578125" style="43" customWidth="1"/>
+    <col min="12292" max="12292" width="34.5703125" style="43" customWidth="1"/>
+    <col min="12293" max="12293" width="25.7109375" style="43" customWidth="1"/>
+    <col min="12294" max="12294" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="29.7109375" style="43" customWidth="1"/>
+    <col min="12296" max="12296" width="28.28515625" style="43" customWidth="1"/>
+    <col min="12297" max="12297" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12298" max="12298" width="27" style="43" customWidth="1"/>
+    <col min="12299" max="12299" width="34.28515625" style="43" customWidth="1"/>
+    <col min="12300" max="12300" width="13.42578125" style="43" customWidth="1"/>
+    <col min="12301" max="12301" width="11.42578125" style="43" customWidth="1"/>
+    <col min="12302" max="12302" width="13" style="43" customWidth="1"/>
+    <col min="12303" max="12303" width="14" style="43" customWidth="1"/>
+    <col min="12304" max="12544" width="9.140625" style="43"/>
+    <col min="12545" max="12545" width="14.42578125" style="43" customWidth="1"/>
+    <col min="12546" max="12546" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12547" max="12547" width="18.42578125" style="43" customWidth="1"/>
+    <col min="12548" max="12548" width="34.5703125" style="43" customWidth="1"/>
+    <col min="12549" max="12549" width="25.7109375" style="43" customWidth="1"/>
+    <col min="12550" max="12550" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="29.7109375" style="43" customWidth="1"/>
+    <col min="12552" max="12552" width="28.28515625" style="43" customWidth="1"/>
+    <col min="12553" max="12553" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12554" max="12554" width="27" style="43" customWidth="1"/>
+    <col min="12555" max="12555" width="34.28515625" style="43" customWidth="1"/>
+    <col min="12556" max="12556" width="13.42578125" style="43" customWidth="1"/>
+    <col min="12557" max="12557" width="11.42578125" style="43" customWidth="1"/>
+    <col min="12558" max="12558" width="13" style="43" customWidth="1"/>
+    <col min="12559" max="12559" width="14" style="43" customWidth="1"/>
+    <col min="12560" max="12800" width="9.140625" style="43"/>
+    <col min="12801" max="12801" width="14.42578125" style="43" customWidth="1"/>
+    <col min="12802" max="12802" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12803" max="12803" width="18.42578125" style="43" customWidth="1"/>
+    <col min="12804" max="12804" width="34.5703125" style="43" customWidth="1"/>
+    <col min="12805" max="12805" width="25.7109375" style="43" customWidth="1"/>
+    <col min="12806" max="12806" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="29.7109375" style="43" customWidth="1"/>
+    <col min="12808" max="12808" width="28.28515625" style="43" customWidth="1"/>
+    <col min="12809" max="12809" width="27.7109375" style="43" customWidth="1"/>
+    <col min="12810" max="12810" width="27" style="43" customWidth="1"/>
+    <col min="12811" max="12811" width="34.28515625" style="43" customWidth="1"/>
+    <col min="12812" max="12812" width="13.42578125" style="43" customWidth="1"/>
+    <col min="12813" max="12813" width="11.42578125" style="43" customWidth="1"/>
+    <col min="12814" max="12814" width="13" style="43" customWidth="1"/>
+    <col min="12815" max="12815" width="14" style="43" customWidth="1"/>
+    <col min="12816" max="13056" width="9.140625" style="43"/>
+    <col min="13057" max="13057" width="14.42578125" style="43" customWidth="1"/>
+    <col min="13058" max="13058" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13059" max="13059" width="18.42578125" style="43" customWidth="1"/>
+    <col min="13060" max="13060" width="34.5703125" style="43" customWidth="1"/>
+    <col min="13061" max="13061" width="25.7109375" style="43" customWidth="1"/>
+    <col min="13062" max="13062" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="29.7109375" style="43" customWidth="1"/>
+    <col min="13064" max="13064" width="28.28515625" style="43" customWidth="1"/>
+    <col min="13065" max="13065" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13066" max="13066" width="27" style="43" customWidth="1"/>
+    <col min="13067" max="13067" width="34.28515625" style="43" customWidth="1"/>
+    <col min="13068" max="13068" width="13.42578125" style="43" customWidth="1"/>
+    <col min="13069" max="13069" width="11.42578125" style="43" customWidth="1"/>
+    <col min="13070" max="13070" width="13" style="43" customWidth="1"/>
+    <col min="13071" max="13071" width="14" style="43" customWidth="1"/>
+    <col min="13072" max="13312" width="9.140625" style="43"/>
+    <col min="13313" max="13313" width="14.42578125" style="43" customWidth="1"/>
+    <col min="13314" max="13314" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13315" max="13315" width="18.42578125" style="43" customWidth="1"/>
+    <col min="13316" max="13316" width="34.5703125" style="43" customWidth="1"/>
+    <col min="13317" max="13317" width="25.7109375" style="43" customWidth="1"/>
+    <col min="13318" max="13318" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="29.7109375" style="43" customWidth="1"/>
+    <col min="13320" max="13320" width="28.28515625" style="43" customWidth="1"/>
+    <col min="13321" max="13321" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13322" max="13322" width="27" style="43" customWidth="1"/>
+    <col min="13323" max="13323" width="34.28515625" style="43" customWidth="1"/>
+    <col min="13324" max="13324" width="13.42578125" style="43" customWidth="1"/>
+    <col min="13325" max="13325" width="11.42578125" style="43" customWidth="1"/>
+    <col min="13326" max="13326" width="13" style="43" customWidth="1"/>
+    <col min="13327" max="13327" width="14" style="43" customWidth="1"/>
+    <col min="13328" max="13568" width="9.140625" style="43"/>
+    <col min="13569" max="13569" width="14.42578125" style="43" customWidth="1"/>
+    <col min="13570" max="13570" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13571" max="13571" width="18.42578125" style="43" customWidth="1"/>
+    <col min="13572" max="13572" width="34.5703125" style="43" customWidth="1"/>
+    <col min="13573" max="13573" width="25.7109375" style="43" customWidth="1"/>
+    <col min="13574" max="13574" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="29.7109375" style="43" customWidth="1"/>
+    <col min="13576" max="13576" width="28.28515625" style="43" customWidth="1"/>
+    <col min="13577" max="13577" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13578" max="13578" width="27" style="43" customWidth="1"/>
+    <col min="13579" max="13579" width="34.28515625" style="43" customWidth="1"/>
+    <col min="13580" max="13580" width="13.42578125" style="43" customWidth="1"/>
+    <col min="13581" max="13581" width="11.42578125" style="43" customWidth="1"/>
+    <col min="13582" max="13582" width="13" style="43" customWidth="1"/>
+    <col min="13583" max="13583" width="14" style="43" customWidth="1"/>
+    <col min="13584" max="13824" width="9.140625" style="43"/>
+    <col min="13825" max="13825" width="14.42578125" style="43" customWidth="1"/>
+    <col min="13826" max="13826" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13827" max="13827" width="18.42578125" style="43" customWidth="1"/>
+    <col min="13828" max="13828" width="34.5703125" style="43" customWidth="1"/>
+    <col min="13829" max="13829" width="25.7109375" style="43" customWidth="1"/>
+    <col min="13830" max="13830" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="29.7109375" style="43" customWidth="1"/>
+    <col min="13832" max="13832" width="28.28515625" style="43" customWidth="1"/>
+    <col min="13833" max="13833" width="27.7109375" style="43" customWidth="1"/>
+    <col min="13834" max="13834" width="27" style="43" customWidth="1"/>
+    <col min="13835" max="13835" width="34.28515625" style="43" customWidth="1"/>
+    <col min="13836" max="13836" width="13.42578125" style="43" customWidth="1"/>
+    <col min="13837" max="13837" width="11.42578125" style="43" customWidth="1"/>
+    <col min="13838" max="13838" width="13" style="43" customWidth="1"/>
+    <col min="13839" max="13839" width="14" style="43" customWidth="1"/>
+    <col min="13840" max="14080" width="9.140625" style="43"/>
+    <col min="14081" max="14081" width="14.42578125" style="43" customWidth="1"/>
+    <col min="14082" max="14082" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14083" max="14083" width="18.42578125" style="43" customWidth="1"/>
+    <col min="14084" max="14084" width="34.5703125" style="43" customWidth="1"/>
+    <col min="14085" max="14085" width="25.7109375" style="43" customWidth="1"/>
+    <col min="14086" max="14086" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="29.7109375" style="43" customWidth="1"/>
+    <col min="14088" max="14088" width="28.28515625" style="43" customWidth="1"/>
+    <col min="14089" max="14089" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14090" max="14090" width="27" style="43" customWidth="1"/>
+    <col min="14091" max="14091" width="34.28515625" style="43" customWidth="1"/>
+    <col min="14092" max="14092" width="13.42578125" style="43" customWidth="1"/>
+    <col min="14093" max="14093" width="11.42578125" style="43" customWidth="1"/>
+    <col min="14094" max="14094" width="13" style="43" customWidth="1"/>
+    <col min="14095" max="14095" width="14" style="43" customWidth="1"/>
+    <col min="14096" max="14336" width="9.140625" style="43"/>
+    <col min="14337" max="14337" width="14.42578125" style="43" customWidth="1"/>
+    <col min="14338" max="14338" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14339" max="14339" width="18.42578125" style="43" customWidth="1"/>
+    <col min="14340" max="14340" width="34.5703125" style="43" customWidth="1"/>
+    <col min="14341" max="14341" width="25.7109375" style="43" customWidth="1"/>
+    <col min="14342" max="14342" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="29.7109375" style="43" customWidth="1"/>
+    <col min="14344" max="14344" width="28.28515625" style="43" customWidth="1"/>
+    <col min="14345" max="14345" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14346" max="14346" width="27" style="43" customWidth="1"/>
+    <col min="14347" max="14347" width="34.28515625" style="43" customWidth="1"/>
+    <col min="14348" max="14348" width="13.42578125" style="43" customWidth="1"/>
+    <col min="14349" max="14349" width="11.42578125" style="43" customWidth="1"/>
+    <col min="14350" max="14350" width="13" style="43" customWidth="1"/>
+    <col min="14351" max="14351" width="14" style="43" customWidth="1"/>
+    <col min="14352" max="14592" width="9.140625" style="43"/>
+    <col min="14593" max="14593" width="14.42578125" style="43" customWidth="1"/>
+    <col min="14594" max="14594" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14595" max="14595" width="18.42578125" style="43" customWidth="1"/>
+    <col min="14596" max="14596" width="34.5703125" style="43" customWidth="1"/>
+    <col min="14597" max="14597" width="25.7109375" style="43" customWidth="1"/>
+    <col min="14598" max="14598" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="29.7109375" style="43" customWidth="1"/>
+    <col min="14600" max="14600" width="28.28515625" style="43" customWidth="1"/>
+    <col min="14601" max="14601" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14602" max="14602" width="27" style="43" customWidth="1"/>
+    <col min="14603" max="14603" width="34.28515625" style="43" customWidth="1"/>
+    <col min="14604" max="14604" width="13.42578125" style="43" customWidth="1"/>
+    <col min="14605" max="14605" width="11.42578125" style="43" customWidth="1"/>
+    <col min="14606" max="14606" width="13" style="43" customWidth="1"/>
+    <col min="14607" max="14607" width="14" style="43" customWidth="1"/>
+    <col min="14608" max="14848" width="9.140625" style="43"/>
+    <col min="14849" max="14849" width="14.42578125" style="43" customWidth="1"/>
+    <col min="14850" max="14850" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14851" max="14851" width="18.42578125" style="43" customWidth="1"/>
+    <col min="14852" max="14852" width="34.5703125" style="43" customWidth="1"/>
+    <col min="14853" max="14853" width="25.7109375" style="43" customWidth="1"/>
+    <col min="14854" max="14854" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="29.7109375" style="43" customWidth="1"/>
+    <col min="14856" max="14856" width="28.28515625" style="43" customWidth="1"/>
+    <col min="14857" max="14857" width="27.7109375" style="43" customWidth="1"/>
+    <col min="14858" max="14858" width="27" style="43" customWidth="1"/>
+    <col min="14859" max="14859" width="34.28515625" style="43" customWidth="1"/>
+    <col min="14860" max="14860" width="13.42578125" style="43" customWidth="1"/>
+    <col min="14861" max="14861" width="11.42578125" style="43" customWidth="1"/>
+    <col min="14862" max="14862" width="13" style="43" customWidth="1"/>
+    <col min="14863" max="14863" width="14" style="43" customWidth="1"/>
+    <col min="14864" max="15104" width="9.140625" style="43"/>
+    <col min="15105" max="15105" width="14.42578125" style="43" customWidth="1"/>
+    <col min="15106" max="15106" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15107" max="15107" width="18.42578125" style="43" customWidth="1"/>
+    <col min="15108" max="15108" width="34.5703125" style="43" customWidth="1"/>
+    <col min="15109" max="15109" width="25.7109375" style="43" customWidth="1"/>
+    <col min="15110" max="15110" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="29.7109375" style="43" customWidth="1"/>
+    <col min="15112" max="15112" width="28.28515625" style="43" customWidth="1"/>
+    <col min="15113" max="15113" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15114" max="15114" width="27" style="43" customWidth="1"/>
+    <col min="15115" max="15115" width="34.28515625" style="43" customWidth="1"/>
+    <col min="15116" max="15116" width="13.42578125" style="43" customWidth="1"/>
+    <col min="15117" max="15117" width="11.42578125" style="43" customWidth="1"/>
+    <col min="15118" max="15118" width="13" style="43" customWidth="1"/>
+    <col min="15119" max="15119" width="14" style="43" customWidth="1"/>
+    <col min="15120" max="15360" width="9.140625" style="43"/>
+    <col min="15361" max="15361" width="14.42578125" style="43" customWidth="1"/>
+    <col min="15362" max="15362" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15363" max="15363" width="18.42578125" style="43" customWidth="1"/>
+    <col min="15364" max="15364" width="34.5703125" style="43" customWidth="1"/>
+    <col min="15365" max="15365" width="25.7109375" style="43" customWidth="1"/>
+    <col min="15366" max="15366" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="29.7109375" style="43" customWidth="1"/>
+    <col min="15368" max="15368" width="28.28515625" style="43" customWidth="1"/>
+    <col min="15369" max="15369" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15370" max="15370" width="27" style="43" customWidth="1"/>
+    <col min="15371" max="15371" width="34.28515625" style="43" customWidth="1"/>
+    <col min="15372" max="15372" width="13.42578125" style="43" customWidth="1"/>
+    <col min="15373" max="15373" width="11.42578125" style="43" customWidth="1"/>
+    <col min="15374" max="15374" width="13" style="43" customWidth="1"/>
+    <col min="15375" max="15375" width="14" style="43" customWidth="1"/>
+    <col min="15376" max="15616" width="9.140625" style="43"/>
+    <col min="15617" max="15617" width="14.42578125" style="43" customWidth="1"/>
+    <col min="15618" max="15618" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15619" max="15619" width="18.42578125" style="43" customWidth="1"/>
+    <col min="15620" max="15620" width="34.5703125" style="43" customWidth="1"/>
+    <col min="15621" max="15621" width="25.7109375" style="43" customWidth="1"/>
+    <col min="15622" max="15622" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="29.7109375" style="43" customWidth="1"/>
+    <col min="15624" max="15624" width="28.28515625" style="43" customWidth="1"/>
+    <col min="15625" max="15625" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15626" max="15626" width="27" style="43" customWidth="1"/>
+    <col min="15627" max="15627" width="34.28515625" style="43" customWidth="1"/>
+    <col min="15628" max="15628" width="13.42578125" style="43" customWidth="1"/>
+    <col min="15629" max="15629" width="11.42578125" style="43" customWidth="1"/>
+    <col min="15630" max="15630" width="13" style="43" customWidth="1"/>
+    <col min="15631" max="15631" width="14" style="43" customWidth="1"/>
+    <col min="15632" max="15872" width="9.140625" style="43"/>
+    <col min="15873" max="15873" width="14.42578125" style="43" customWidth="1"/>
+    <col min="15874" max="15874" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15875" max="15875" width="18.42578125" style="43" customWidth="1"/>
+    <col min="15876" max="15876" width="34.5703125" style="43" customWidth="1"/>
+    <col min="15877" max="15877" width="25.7109375" style="43" customWidth="1"/>
+    <col min="15878" max="15878" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="29.7109375" style="43" customWidth="1"/>
+    <col min="15880" max="15880" width="28.28515625" style="43" customWidth="1"/>
+    <col min="15881" max="15881" width="27.7109375" style="43" customWidth="1"/>
+    <col min="15882" max="15882" width="27" style="43" customWidth="1"/>
+    <col min="15883" max="15883" width="34.28515625" style="43" customWidth="1"/>
+    <col min="15884" max="15884" width="13.42578125" style="43" customWidth="1"/>
+    <col min="15885" max="15885" width="11.42578125" style="43" customWidth="1"/>
+    <col min="15886" max="15886" width="13" style="43" customWidth="1"/>
+    <col min="15887" max="15887" width="14" style="43" customWidth="1"/>
+    <col min="15888" max="16128" width="9.140625" style="43"/>
+    <col min="16129" max="16129" width="14.42578125" style="43" customWidth="1"/>
+    <col min="16130" max="16130" width="27.7109375" style="43" customWidth="1"/>
+    <col min="16131" max="16131" width="18.42578125" style="43" customWidth="1"/>
+    <col min="16132" max="16132" width="34.5703125" style="43" customWidth="1"/>
+    <col min="16133" max="16133" width="25.7109375" style="43" customWidth="1"/>
+    <col min="16134" max="16134" width="20.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="29.7109375" style="43" customWidth="1"/>
+    <col min="16136" max="16136" width="28.28515625" style="43" customWidth="1"/>
+    <col min="16137" max="16137" width="27.7109375" style="43" customWidth="1"/>
+    <col min="16138" max="16138" width="27" style="43" customWidth="1"/>
+    <col min="16139" max="16139" width="34.28515625" style="43" customWidth="1"/>
+    <col min="16140" max="16140" width="13.42578125" style="43" customWidth="1"/>
+    <col min="16141" max="16141" width="11.42578125" style="43" customWidth="1"/>
+    <col min="16142" max="16142" width="13" style="43" customWidth="1"/>
+    <col min="16143" max="16143" width="14" style="43" customWidth="1"/>
+    <col min="16144" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="48">
         <v>45986</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="48">
         <v>46042</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="62" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:12" s="27" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <v>1</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="20" t="s">
+      <c r="H10" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="20" t="s">
+      <c r="H11" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="20" t="s">
+      <c r="H12" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="24"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="20" t="s">
+      <c r="H13" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="52"/>
+    </row>
+    <row r="14" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="54">
         <v>38429</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="10"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="20" t="s">
+      <c r="H14" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="52"/>
+    </row>
+    <row r="15" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="10"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="20" t="s">
+      <c r="H15" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="10"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="20" t="s">
+      <c r="H16" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="52"/>
+    </row>
+    <row r="17" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="10"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="20" t="s">
+      <c r="H17" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="20" t="s">
+      <c r="H18" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="55">
         <v>8212030222</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="20" t="s">
+      <c r="H19" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="52"/>
+    </row>
+    <row r="20" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="20" t="s">
+      <c r="H20" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="1:12" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="10"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="H21" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="1:12" s="27" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="24">
         <v>2</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="20" t="s">
+      <c r="H22" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="52"/>
+    </row>
+    <row r="23" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="20" t="s">
+      <c r="H23" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="52"/>
+    </row>
+    <row r="24" spans="1:12" s="27" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="20" t="s">
+      <c r="H24" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="52"/>
+    </row>
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="20" t="s">
+      <c r="H25" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="52"/>
+    </row>
+    <row r="26" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="54">
         <v>38429</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="10"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="20" t="s">
+      <c r="H26" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="52"/>
+    </row>
+    <row r="27" spans="1:12" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="10"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="20" t="s">
+      <c r="H27" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="52"/>
+    </row>
+    <row r="28" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="10"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="20" t="s">
+      <c r="H28" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="10"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="20" t="s">
+      <c r="H29" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="1:12" s="27" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="10"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="20" t="s">
+      <c r="H30" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="57">
         <v>8438941803</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="20" t="s">
+      <c r="H31" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="1:12" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="13" t="s">
+      <c r="F32" s="24"/>
+      <c r="G32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="10"/>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="1:12" s="9" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="20" t="s">
+      <c r="H32" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="33" spans="1:12" s="27" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="10"/>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" spans="1:12" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="H33" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="I33" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="52"/>
+    </row>
+    <row r="34" spans="1:12" s="27" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="24">
         <v>3</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="20" t="s">
+      <c r="F34" s="24"/>
+      <c r="G34" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="10"/>
-      <c r="L34" s="26"/>
+      <c r="H34" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="52"/>
     </row>
     <row r="35" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="20" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="H35" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I35" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
     </row>
     <row r="36" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="20" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="53"/>
+      <c r="H36" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
     <row r="37" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="24">
         <v>4</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-    </row>
-    <row r="38" spans="1:12" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="20" t="s">
+      <c r="H37" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+    </row>
+    <row r="38" spans="1:12" s="27" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="26"/>
-    </row>
-    <row r="39" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="20" t="s">
+      <c r="H38" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="I38" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="52"/>
+    </row>
+    <row r="39" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="13" t="s">
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="H39" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="I39" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+    </row>
+    <row r="40" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="24">
         <v>5</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="20" t="s">
+      <c r="H40" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+    </row>
+    <row r="41" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="20" t="s">
+      <c r="H41" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+    </row>
+    <row r="42" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="20" t="s">
+      <c r="H42" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="I42" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+    </row>
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="H43" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
     </row>
     <row r="44" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="20" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="20" t="s">
+      <c r="F44" s="24"/>
+      <c r="G44" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="H44" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
     </row>
     <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="24">
         <v>6</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="20" t="s">
+      <c r="H45" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I45" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+    </row>
+    <row r="46" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="20" t="s">
+      <c r="H46" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I46" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+    </row>
+    <row r="47" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="H47" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I47" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
     </row>
     <row r="48" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="20" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="20" t="s">
+      <c r="F48" s="68"/>
+      <c r="G48" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="H48" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="I48" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
     </row>
     <row r="49" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="44" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="H49" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
     </row>
     <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="24">
         <v>7</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="H50" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I50" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
     </row>
     <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="20" t="s">
+      <c r="A51" s="24"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="H51" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
     </row>
     <row r="52" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="20" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="20" t="s">
+      <c r="H52" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+    </row>
+    <row r="53" spans="1:12" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L53" s="26"/>
+      <c r="H53" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="52"/>
     </row>
     <row r="54" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="34" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="H54" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
     </row>
     <row r="55" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="34" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="34" t="s">
+      <c r="G55" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="H55" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="I55" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
     </row>
     <row r="56" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="34" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="F56" s="48" t="s">
+      <c r="F56" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="34" t="s">
+      <c r="G56" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="H56" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
     </row>
     <row r="57" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="24">
         <v>8</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="20" t="s">
+      <c r="H57" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I57" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+    </row>
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F58" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="20" t="s">
+      <c r="H58" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I58" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+    </row>
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="41" t="s">
+      <c r="F59" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-    </row>
-    <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="20" t="s">
+      <c r="H59" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I59" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+    </row>
+    <row r="60" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-    </row>
-    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="20" t="s">
+      <c r="H60" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+    </row>
+    <row r="61" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="54">
         <v>38429</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="20" t="s">
+      <c r="H61" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+    </row>
+    <row r="62" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="20" t="s">
+      <c r="F62" s="24"/>
+      <c r="G62" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="H62" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="I62" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
     </row>
     <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="24">
         <v>9</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="E63" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="H63" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I63" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
     </row>
     <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="20" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="13" t="s">
+      <c r="G64" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="1:12" s="9" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="20" t="s">
+      <c r="H64" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I64" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+    </row>
+    <row r="65" spans="1:12" s="27" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G65" s="13" t="s">
+      <c r="G65" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L65" s="26"/>
-    </row>
-    <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="20" t="s">
+      <c r="H65" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I65" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="52"/>
+    </row>
+    <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-    </row>
-    <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="20" t="s">
+      <c r="H66" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="I66" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+    </row>
+    <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F67" s="54">
         <v>38429</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="H67" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I67" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
     </row>
     <row r="68" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="20" t="s">
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" ht="39" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="49" t="s">
+      <c r="H68" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+    </row>
+    <row r="69" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="50" t="s">
+      <c r="F69" s="67"/>
+      <c r="G69" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+      <c r="H69" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
     </row>
     <row r="70" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="47">
+      <c r="C70" s="59">
         <v>10</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="H70" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I70" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
     </row>
     <row r="71" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="20" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="72" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="20" t="s">
+      <c r="H71" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I71" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+    </row>
+    <row r="72" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="41" t="s">
+      <c r="F72" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="20" t="s">
+      <c r="H72" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I72" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+    </row>
+    <row r="73" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-    </row>
-    <row r="74" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="20" t="s">
+      <c r="H73" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="I73" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+    </row>
+    <row r="74" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="54">
         <v>38429</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="H74" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I74" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
     </row>
     <row r="75" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="20" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-    </row>
-    <row r="76" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="20" t="s">
+      <c r="H75" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I75" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+    </row>
+    <row r="76" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-    </row>
-    <row r="77" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="49" t="s">
+      <c r="H76" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="I76" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+    </row>
+    <row r="77" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="49" t="s">
+      <c r="F77" s="59"/>
+      <c r="G77" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+      <c r="H77" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="I77" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
     </row>
     <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="47">
+      <c r="C78" s="59">
         <v>11</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G78" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="H78" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I78" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
     </row>
     <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="20" t="s">
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G79" s="13" t="s">
+      <c r="G79" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="20" t="s">
+      <c r="H79" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I79" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67"/>
+    </row>
+    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F80" s="41" t="s">
+      <c r="F80" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-    </row>
-    <row r="81" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="20" t="s">
+      <c r="H80" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I80" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+    </row>
+    <row r="81" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-    </row>
-    <row r="82" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="20" t="s">
+      <c r="H81" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="I81" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+    </row>
+    <row r="82" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="54">
         <v>38429</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="H82" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I82" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
     </row>
     <row r="83" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="20" t="s">
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-    </row>
-    <row r="84" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="20" t="s">
+      <c r="H83" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+    </row>
+    <row r="84" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-    </row>
-    <row r="85" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="20" t="s">
+      <c r="H84" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="I84" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
+    </row>
+    <row r="85" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-    </row>
-    <row r="86" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="20" t="s">
+      <c r="H85" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="I85" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+    </row>
+    <row r="86" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="49" t="s">
+      <c r="F86" s="59"/>
+      <c r="G86" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+      <c r="H86" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="I86" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
     </row>
     <row r="87" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="47">
+      <c r="C87" s="59">
         <v>12</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
+      <c r="H87" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="I87" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
     </row>
     <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="20" t="s">
+      <c r="A88" s="59"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-    </row>
-    <row r="89" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="20" t="s">
+      <c r="H88" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I88" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+    </row>
+    <row r="89" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F89" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G89" s="13" t="s">
+      <c r="G89" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-    </row>
-    <row r="90" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="20" t="s">
+      <c r="H89" s="73" t="s">
+        <v>186</v>
+      </c>
+      <c r="I89" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+    </row>
+    <row r="90" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-    </row>
-    <row r="91" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="20" t="s">
+      <c r="H90" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="I90" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+    </row>
+    <row r="91" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="59"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F91" s="54">
         <v>38429</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="G91" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
+      <c r="H91" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
     </row>
     <row r="92" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="20" t="s">
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F92" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-    </row>
-    <row r="93" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="20" t="s">
+      <c r="H92" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I92" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+    </row>
+    <row r="93" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="59"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-    </row>
-    <row r="94" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="20" t="s">
+      <c r="H93" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="I93" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
+    </row>
+    <row r="94" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G94" s="20" t="s">
+      <c r="G94" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
-    </row>
-    <row r="95" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="20" t="s">
+      <c r="H94" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="I94" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
+    </row>
+    <row r="95" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="67"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="F95" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="G95" s="13" t="s">
+      <c r="G95" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-    </row>
-    <row r="96" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="20" t="s">
+      <c r="H95" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+    </row>
+    <row r="96" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="49" t="s">
+      <c r="F96" s="59"/>
+      <c r="G96" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
-    </row>
-    <row r="97" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="49" t="s">
+      <c r="H96" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="I96" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+    </row>
+    <row r="97" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="F97" s="47" t="s">
+      <c r="F97" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="H97" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="I97" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
     </row>
     <row r="98" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="45" t="s">
+      <c r="A98" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="59">
         <v>13</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G98" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-    </row>
-    <row r="99" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="20" t="s">
+      <c r="H98" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I98" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+    </row>
+    <row r="99" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G99" s="13" t="s">
+      <c r="G99" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-    </row>
-    <row r="100" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="20" t="s">
+      <c r="H99" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I99" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
+    </row>
+    <row r="100" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="F100" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
-    </row>
-    <row r="101" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="20" t="s">
+      <c r="H100" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I100" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
+    </row>
+    <row r="101" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-    </row>
-    <row r="102" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="20" t="s">
+      <c r="H101" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I101" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+    </row>
+    <row r="102" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="59"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F102" s="54">
         <v>38429</v>
       </c>
-      <c r="G102" s="20" t="s">
+      <c r="G102" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-    </row>
-    <row r="103" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="20" t="s">
+      <c r="H102" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I102" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+    </row>
+    <row r="103" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="59"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G103" s="20" t="s">
+      <c r="G103" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="H103" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I103" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
     </row>
     <row r="104" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="20" t="s">
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G104" s="20" t="s">
+      <c r="G104" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
+      <c r="H104" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="I104" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
     </row>
     <row r="105" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="20" t="s">
+      <c r="A105" s="59"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
-    </row>
-    <row r="106" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="20" t="s">
+      <c r="H105" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="I105" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+    </row>
+    <row r="106" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="59"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F106" s="31" t="s">
+      <c r="F106" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
+      <c r="H106" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I106" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
     </row>
     <row r="107" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="20" t="s">
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F107" s="39">
+      <c r="F107" s="55">
         <v>8438941803</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-    </row>
-    <row r="108" spans="1:11" ht="39" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="49" t="s">
+      <c r="H107" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I107" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
+    </row>
+    <row r="108" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A108" s="59"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="F108" s="45"/>
-      <c r="G108" s="49" t="s">
+      <c r="F108" s="59"/>
+      <c r="G108" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="H108" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="I108" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
     </row>
     <row r="109" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="49" t="s">
+      <c r="A109" s="59"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="F109" s="47" t="s">
+      <c r="F109" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="G109" s="52" t="s">
+      <c r="G109" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="46"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="45"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="46"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="46"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="49"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="35"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="35"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="35"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="35"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="35"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="35"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
+      <c r="H109" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="I109" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
+    </row>
+    <row r="110" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="59">
+        <v>12</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G110" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="H110" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I110" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
+    </row>
+    <row r="111" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F111" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G111" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H111" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I111" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
+    </row>
+    <row r="112" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F112" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="H112" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="I112" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J112" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="K112" s="67"/>
+    </row>
+    <row r="113" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="59">
+        <v>12</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F113" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G113" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I113" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+    </row>
+    <row r="114" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="59"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H114" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I114" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+    </row>
+    <row r="115" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G115" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H115" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I115" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J115" s="67"/>
+      <c r="K115" s="67"/>
+    </row>
+    <row r="116" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+      <c r="B116" s="59"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="59"/>
+      <c r="E116" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F116" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G116" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H116" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I116" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J116" s="67"/>
+      <c r="K116" s="67"/>
+    </row>
+    <row r="117" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="59"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="G117" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H117" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I117" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+    </row>
+    <row r="118" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="59"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G118" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="H118" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I118" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J118" s="67"/>
+      <c r="K118" s="67"/>
+    </row>
+    <row r="119" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="F119" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G119" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H119" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="I119" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J119" s="67"/>
+      <c r="K119" s="67"/>
+    </row>
+    <row r="120" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G120" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="I120" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J120" s="67"/>
+      <c r="K120" s="67"/>
+    </row>
+    <row r="121" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G121" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I121" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
+    </row>
+    <row r="122" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="F122" s="67">
+        <v>987654321</v>
+      </c>
+      <c r="G122" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H122" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="I122" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+    </row>
+    <row r="123" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="67"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="F123" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G123" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="H123" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="I123" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+    </row>
+    <row r="124" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="59">
+        <v>12</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F124" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G124" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H124" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I124" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J124" s="67"/>
+      <c r="K124" s="67"/>
+    </row>
+    <row r="125" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="67"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G125" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H125" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I125" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+    </row>
+    <row r="126" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="67"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F126" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G126" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H126" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I126" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+    </row>
+    <row r="127" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="67"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G127" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H127" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I127" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
+    </row>
+    <row r="128" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="67"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F128" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="G128" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H128" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I128" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+    </row>
+    <row r="129" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="67"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F129" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G129" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="H129" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I129" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
+    </row>
+    <row r="130" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="67"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="F130" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G130" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H130" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="I130" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
+    </row>
+    <row r="131" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="67"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F131" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G131" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="I131" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
+    </row>
+    <row r="132" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="67"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="F132" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G132" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="H132" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I132" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+    </row>
+    <row r="133" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="67"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="F133" s="67">
+        <v>98765432101</v>
+      </c>
+      <c r="G133" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="H133" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I133" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="J133" s="67" t="s">
+        <v>230</v>
+      </c>
+      <c r="K133" s="67"/>
+    </row>
+    <row r="134" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="59">
+        <v>12</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G134" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I134" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J134" s="67"/>
+      <c r="K134" s="67"/>
+    </row>
+    <row r="135" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G135" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H135" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I135" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J135" s="67"/>
+      <c r="K135" s="67"/>
+    </row>
+    <row r="136" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="67"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G136" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H136" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I136" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J136" s="67"/>
+      <c r="K136" s="67"/>
+    </row>
+    <row r="137" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="67"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="F137" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G137" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="H137" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="I137" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J137" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="K137" s="67"/>
+    </row>
+    <row r="138" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C138" s="59">
+        <v>12</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E138" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G138" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H138" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I138" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J138" s="67"/>
+      <c r="K138" s="67"/>
+    </row>
+    <row r="139" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="67"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F139" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G139" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H139" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I139" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J139" s="67"/>
+      <c r="K139" s="67"/>
+    </row>
+    <row r="140" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="67"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G140" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H140" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I140" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J140" s="67"/>
+      <c r="K140" s="67"/>
+    </row>
+    <row r="141" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="67"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G141" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H141" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I141" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J141" s="67"/>
+      <c r="K141" s="67"/>
+    </row>
+    <row r="142" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="67"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="F142" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="G142" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="H142" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="I142" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J142" s="67"/>
+      <c r="K142" s="67"/>
+    </row>
+    <row r="143" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="67"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="F143" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G143" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="H143" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="I143" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J143" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="K143" s="67"/>
+    </row>
+    <row r="144" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="B144" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C144" s="59">
+        <v>12</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="F144" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G144" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="H144" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="I144" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J144" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="K144" s="67"/>
+    </row>
+    <row r="145" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" s="59">
+        <v>12</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="F145" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G145" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="H145" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="I145" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J145" s="67"/>
+      <c r="K145" s="67"/>
+    </row>
+    <row r="146" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B146" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="59">
+        <v>12</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G146" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H146" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I146" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J146" s="67"/>
+      <c r="K146" s="67"/>
+    </row>
+    <row r="147" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="67"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F147" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="G147" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="H147" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="I147" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J147" s="67"/>
+      <c r="K147" s="67"/>
+    </row>
+    <row r="148" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="67"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G148" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="H148" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I148" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J148" s="67"/>
+      <c r="K148" s="67"/>
+    </row>
+    <row r="149" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="67"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F149" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="G149" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H149" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="I149" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J149" s="67"/>
+      <c r="K149" s="67"/>
+    </row>
+    <row r="150" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="67"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F150" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="G150" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H150" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="I150" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J150" s="67"/>
+      <c r="K150" s="67"/>
+    </row>
+    <row r="151" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="67"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="67"/>
+      <c r="E151" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="H151" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="I151" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J151" s="67"/>
+      <c r="K151" s="67"/>
+    </row>
+    <row r="152" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="67"/>
+      <c r="B152" s="67"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="F152" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G152" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H152" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="I152" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J152" s="67"/>
+      <c r="K152" s="67"/>
+    </row>
+    <row r="153" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="67"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F153" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G153" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="I153" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J153" s="67"/>
+      <c r="K153" s="67"/>
+    </row>
+    <row r="154" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="67"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="F154" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G154" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I154" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J154" s="67"/>
+      <c r="K154" s="67"/>
+    </row>
+    <row r="155" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="67"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="F155" s="67">
+        <v>987654321</v>
+      </c>
+      <c r="G155" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I155" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J155" s="67"/>
+      <c r="K155" s="67"/>
+    </row>
+    <row r="156" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="67"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="F156" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G156" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H156" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="I156" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J156" s="67"/>
+      <c r="K156" s="67"/>
+    </row>
+    <row r="157" spans="1:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="67"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="67"/>
+      <c r="E157" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="F157" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G157" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="H157" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="I157" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J157" s="67"/>
+      <c r="K157" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5339,6 +6859,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -5346,8 +6867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C9D068-D540-454C-8DE6-9D8144402BBF}">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6315,651 +7836,841 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="F4" s="48">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C5" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="48">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="9" spans="1:13" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="21"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="74">
+        <v>45991</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="74">
+        <v>45991</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="75"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="76"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="63">
+        <v>98765432101</v>
+      </c>
+      <c r="G22" s="66"/>
+    </row>
+    <row r="23" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="I23" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="74">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="74">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:10" s="63" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="66"/>
+    </row>
+    <row r="31" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="I33" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="74">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="21"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="21"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="16"/>
-      <c r="G48" s="13"/>
+      <c r="E41" s="19"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="14"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="16"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="14"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="13"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="16"/>
-      <c r="G52" s="13"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="14"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="16"/>
-      <c r="G53" s="13"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="14"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="13"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="13"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="21"/>
-      <c r="G56" s="21"/>
+      <c r="E56" s="19"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="13"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="13"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="13"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="13"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="13"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="13"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="13"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="13"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="13"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="13"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="21"/>
-      <c r="G68" s="21"/>
+      <c r="E68" s="19"/>
+      <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6976,11 +8687,10 @@
     <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7448,37 +9158,37 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="69"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
@@ -7498,12 +9208,12 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
@@ -7527,7 +9237,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -7535,7 +9245,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -7543,15 +9253,15 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -7559,7 +9269,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -7567,7 +9277,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -7575,7 +9285,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -7583,15 +9293,15 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -7713,6 +9423,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100942A5F91C020114B9D9B6669BDED9868" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62496d86c6ae077114fd1d88c4539805">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24503b2e-f4dc-4abf-83fe-5a97c0785769" xmlns:ns3="e79f15d7-c448-4303-9ba2-b2daf1085145" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22ddc5b4a67293e3563182d9cb923a11" ns2:_="" ns3:_="">
     <xsd:import namespace="24503b2e-f4dc-4abf-83fe-5a97c0785769"/>
@@ -7929,22 +9654,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47764454-282F-4F71-8E29-2F5154146D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e79f15d7-c448-4303-9ba2-b2daf1085145"/>
+    <ds:schemaRef ds:uri="24503b2e-f4dc-4abf-83fe-5a97c0785769"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0CD53BC-1D15-4B9F-8123-00188531DB3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86B9FAD-4AF9-4744-AA50-00A254F1E863}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7961,29 +9696,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0CD53BC-1D15-4B9F-8123-00188531DB3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47764454-282F-4F71-8E29-2F5154146D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e79f15d7-c448-4303-9ba2-b2daf1085145"/>
-    <ds:schemaRef ds:uri="24503b2e-f4dc-4abf-83fe-5a97c0785769"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>